--- a/tactical_analyses/manuscript/Supplementary_Tables.xlsx
+++ b/tactical_analyses/manuscript/Supplementary_Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="28700" windowHeight="17540" tabRatio="710"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="28700" windowHeight="17540" tabRatio="710" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Supplementary Table 1" sheetId="7" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <definedName name="supp_table_2a" localSheetId="1">'Supplementary Table 2'!$A$6:$L$13</definedName>
     <definedName name="supp_table_2b" localSheetId="1">'Supplementary Table 2'!$A$15:$L$47</definedName>
     <definedName name="supp_table_2c" localSheetId="1">'Supplementary Table 2'!$A$49:$L$149</definedName>
+    <definedName name="supp_table_3" localSheetId="2">'Supplementary Table 3'!$A$14:$D$17</definedName>
     <definedName name="supptab1" localSheetId="0">'Supplementary Table 1'!$B$3:$O$4</definedName>
     <definedName name="SuppTable_shared_tier1" localSheetId="1">'Supplementary Table 2'!$A$3:$L$13</definedName>
     <definedName name="table_eqtls_prettyNum" localSheetId="4">'Supplementary Table 5'!$A$3:$N$59</definedName>
@@ -103,7 +104,7 @@
     </textPr>
   </connection>
   <connection id="6" name="supp_table_2a.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="2" sourceFile="Macintosh HD:Users:jtorres:Google Drive:Science:Projects:t2d_classification:tactical_analyses:manuscript:table_files:supp_table_2a.csv" comma="1">
+    <textPr fileType="mac" firstRow="2" sourceFile="Macintosh HD:Users:jtorres:Google Drive:Science:Projects:t2d_classification:tactical_analyses:manuscript:table_files:supp_table_2a.csv" comma="1">
       <textFields count="12">
         <textField/>
         <textField/>
@@ -121,7 +122,7 @@
     </textPr>
   </connection>
   <connection id="7" name="supp_table_2b.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="2" sourceFile="Macintosh HD:Users:jtorres:Google Drive:Science:Projects:t2d_classification:tactical_analyses:manuscript:table_files:supp_table_2b.csv" tab="0" comma="1">
+    <textPr fileType="mac" firstRow="2" sourceFile="Macintosh HD:Users:jtorres:Google Drive:Science:Projects:t2d_classification:tactical_analyses:manuscript:table_files:supp_table_2b.csv" tab="0" comma="1">
       <textFields count="12">
         <textField/>
         <textField/>
@@ -139,7 +140,7 @@
     </textPr>
   </connection>
   <connection id="8" name="supp_table_2c.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="2" sourceFile="Macintosh HD:Users:jtorres:Google Drive:Science:Projects:t2d_classification:tactical_analyses:manuscript:table_files:supp_table_2c.csv" tab="0" comma="1">
+    <textPr fileType="mac" firstRow="2" sourceFile="Macintosh HD:Users:jtorres:Google Drive:Science:Projects:t2d_classification:tactical_analyses:manuscript:table_files:supp_table_2c.csv" tab="0" comma="1">
       <textFields count="12">
         <textField/>
         <textField/>
@@ -156,14 +157,24 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="9" name="supptab1.txt" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="9" name="supp_table_3.txt" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" firstRow="2" sourceFile="Macintosh HD:Users:jtorres:Google Drive:Science:Projects:t2d_classification:tactical_analyses:manuscript:table_files:supp_table_3.txt">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="10" name="supptab1.txt" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:jtorres:TEMPO:supptab1.txt">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="10" name="SuppTable_shared_tier1.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="11" name="SuppTable_shared_tier1.csv" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:jtorres:TEMPO:SuppTable_shared_tier1.csv" comma="1">
       <textFields count="12">
         <textField/>
@@ -181,7 +192,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="11" name="SuppTable_shared_tier2.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="12" name="SuppTable_shared_tier2.csv" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:jtorres:TEMPO:SuppTable_shared_tier2.csv" comma="1">
       <textFields count="12">
         <textField/>
@@ -199,7 +210,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="12" name="SuppTable_shared_tier3.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="13" name="SuppTable_shared_tier3.csv" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:jtorres:TEMPO:SuppTable_shared_tier3.csv" comma="1">
       <textFields count="12">
         <textField/>
@@ -217,7 +228,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="13" name="table_eqtls_prettyNum.txt" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="14" name="table_eqtls_prettyNum.txt" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:jtorres:Desktop:Temp:table_eqtls_prettyNum.txt">
       <textFields count="14">
         <textField/>
@@ -237,7 +248,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="14" name="table_islet_genes_prettyNum.txt" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="15" name="table_islet_genes_prettyNum.txt" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:jtorres:Desktop:Temp:table_islet_genes_prettyNum.txt">
       <textFields count="18">
         <textField/>
@@ -6610,7 +6621,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6651,6 +6662,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6672,6 +6686,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6681,14 +6701,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="37">
@@ -6736,39 +6753,43 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="supptab1" connectionId="9" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="supp_table_1" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="table_eqtls_prettyNum" connectionId="14" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="supp_table_1" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="supptab1" connectionId="10" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SuppTable_shared_tier1" connectionId="10" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="supp_table_2a" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="supp_table_2a" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SuppTable_shared_tier1" connectionId="11" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="supp_table_2c" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="supp_table_2b" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="supp_table_2c" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="supp_table_3" connectionId="9" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="brain-enrich" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="coloc_380_clpp01_allpairs_expanded_ppa50" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="table_eqtls_prettyNum" connectionId="13" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7095,7 +7116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O400"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M21" sqref="M21"/>
     </sheetView>
@@ -7120,77 +7141,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>1542</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>1541</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>889</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="25" t="s">
         <v>1540</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="25" t="s">
         <v>891</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="25" t="s">
         <v>892</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="25" t="s">
         <v>893</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>1814</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="25" t="s">
         <v>1810</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24" t="s">
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25" t="s">
         <v>1802</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="13" t="s">
         <v>1808</v>
       </c>
@@ -25249,37 +25270,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>1834</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="20" t="s">
         <v>1830</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>888</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="20" t="s">
@@ -25288,26 +25309,26 @@
       <c r="G3" s="20" t="s">
         <v>1828</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="25" t="s">
         <v>1832</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12" ht="45">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="22" t="s">
         <v>1831</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="32" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="22" t="s">
         <v>1827</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="22" t="s">
         <v>1829</v>
       </c>
       <c r="H4" s="20" t="s">
@@ -30772,12 +30793,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="H3:L3"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="H3:L3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -30790,18 +30811,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="32.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.5" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" customWidth="1"/>
     <col min="7" max="7" width="9.5" customWidth="1"/>
     <col min="8" max="8" width="6.1640625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" hidden="1" customWidth="1"/>
@@ -30812,164 +30833,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="33" t="s">
         <v>1841</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-    </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+    </row>
+    <row r="5" spans="1:14" ht="40" customHeight="1">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>1797</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="25" t="s">
         <v>1815</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="25" t="s">
         <v>1798</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="25"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="13" t="s">
         <v>1817</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>1816</v>
       </c>
-      <c r="D7" s="29"/>
+      <c r="D7" s="32"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="35" t="s">
         <v>1799</v>
       </c>
       <c r="B8" s="18">
-        <v>6.0862423605442199E-3</v>
+        <v>6.7412817422222203E-3</v>
       </c>
       <c r="C8" s="18">
-        <v>0.12747884101627899</v>
+        <v>0.16352356665538501</v>
       </c>
       <c r="D8" s="10">
-        <v>2.3657410925768002E-3</v>
+        <v>7.8530099969105396E-3</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="35" t="s">
         <v>1800</v>
       </c>
       <c r="B9" s="18">
-        <v>9.1010660020408203E-3</v>
+        <v>2.2750699726349199E-2</v>
       </c>
       <c r="C9" s="18">
-        <v>0.26551377546162802</v>
+        <v>0.28220657970000002</v>
       </c>
       <c r="D9" s="11">
-        <v>1.00209445616966E-14</v>
+        <v>9.2141167408760902E-11</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="35" t="s">
         <v>1840</v>
       </c>
       <c r="B10" s="18">
-        <v>0.15601847003571401</v>
+        <v>0.14708938495841301</v>
       </c>
       <c r="C10" s="18">
-        <v>2.9572887081395299E-2</v>
+        <v>3.1992957193846198E-2</v>
       </c>
       <c r="D10" s="11">
-        <v>2.00715839097636E-5</v>
+        <v>7.53255095625393E-5</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="36" t="s">
         <v>1801</v>
       </c>
       <c r="B11" s="19">
-        <v>4.6549401129932E-2</v>
+        <v>4.34971738609524E-2</v>
       </c>
       <c r="C11" s="19">
-        <v>5.3448399872093001E-3</v>
+        <v>6.8241600753846197E-3</v>
       </c>
       <c r="D11" s="12">
-        <v>3.7416961002024199E-4</v>
-      </c>
+        <v>5.3978081130849698E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="D16" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -31009,78 +31036,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>1825</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>1818</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>1819</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="25" t="s">
         <v>891</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="25" t="s">
         <v>892</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="26" t="s">
         <v>1820</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="25" t="s">
         <v>1548</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="25" t="s">
         <v>1821</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="26" t="s">
         <v>1824</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="24" t="s">
+      <c r="I3" s="26"/>
+      <c r="J3" s="25" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="25"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
       <c r="H4" s="13" t="s">
         <v>1822</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>1823</v>
       </c>
-      <c r="J4" s="24"/>
+      <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
@@ -43229,82 +43256,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="34" t="s">
         <v>1835</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>888</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>889</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="25" t="s">
         <v>890</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="25" t="s">
         <v>891</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="25" t="s">
         <v>892</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="25" t="s">
         <v>1807</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="25" t="s">
         <v>893</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="25" t="s">
         <v>1809</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
       <c r="L3" s="13" t="s">
         <v>1836</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="25" t="s">
         <v>381</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="N3" s="25" t="s">
         <v>1838</v>
       </c>
-      <c r="O3" s="24"/>
+      <c r="O3" s="25"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
       <c r="H4" s="13" t="s">
         <v>1549</v>
       </c>
@@ -43320,7 +43347,7 @@
       <c r="L4" s="13" t="s">
         <v>1837</v>
       </c>
-      <c r="M4" s="24"/>
+      <c r="M4" s="25"/>
       <c r="N4" s="13" t="s">
         <v>1839</v>
       </c>

--- a/tactical_analyses/manuscript/Supplementary_Tables.xlsx
+++ b/tactical_analyses/manuscript/Supplementary_Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="28700" windowHeight="17540" tabRatio="710" activeTab="2"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="28700" windowHeight="17540" tabRatio="710" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Supplementary Table 1" sheetId="7" r:id="rId1"/>
@@ -15,13 +15,14 @@
   </sheets>
   <definedNames>
     <definedName name="brain_enrich" localSheetId="2">'Supplementary Table 3'!$A$6:$D$11</definedName>
-    <definedName name="coloc_380_clpp01_allpairs_expanded_ppa50" localSheetId="3">'Supplementary Table 4'!$A$4:$J$382</definedName>
+    <definedName name="coloc_380_clpp01_allpairs_expanded_ppa50" localSheetId="3">'Supplementary Table 4'!$A$4:$J$4</definedName>
     <definedName name="Shared_signals_fine_mapped_to_a_single_variant__Tier_1">#REF!</definedName>
     <definedName name="supp_table_1" localSheetId="0">'Supplementary Table 1'!$A$5:$O$384</definedName>
     <definedName name="supp_table_2a" localSheetId="1">'Supplementary Table 2'!$A$6:$L$13</definedName>
     <definedName name="supp_table_2b" localSheetId="1">'Supplementary Table 2'!$A$15:$L$47</definedName>
     <definedName name="supp_table_2c" localSheetId="1">'Supplementary Table 2'!$A$49:$L$149</definedName>
     <definedName name="supp_table_3" localSheetId="2">'Supplementary Table 3'!$A$14:$D$17</definedName>
+    <definedName name="supp_table_4" localSheetId="3">'Supplementary Table 4'!$A$5:$J$382</definedName>
     <definedName name="supptab1" localSheetId="0">'Supplementary Table 1'!$B$3:$O$4</definedName>
     <definedName name="SuppTable_shared_tier1" localSheetId="1">'Supplementary Table 2'!$A$3:$L$13</definedName>
     <definedName name="table_eqtls_prettyNum" localSheetId="4">'Supplementary Table 5'!$A$3:$N$59</definedName>
@@ -167,14 +168,30 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="10" name="supptab1.txt" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="10" name="supp_table_4.txt" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" firstRow="2" sourceFile="Macintosh HD:Users:jtorres:Google Drive:Science:Projects:t2d_classification:tactical_analyses:manuscript:table_files:supp_table_4.txt">
+      <textFields count="10">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="11" name="supptab1.txt" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:jtorres:TEMPO:supptab1.txt">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="11" name="SuppTable_shared_tier1.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="12" name="SuppTable_shared_tier1.csv" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:jtorres:TEMPO:SuppTable_shared_tier1.csv" comma="1">
       <textFields count="12">
         <textField/>
@@ -192,7 +209,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="12" name="SuppTable_shared_tier2.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="13" name="SuppTable_shared_tier2.csv" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:jtorres:TEMPO:SuppTable_shared_tier2.csv" comma="1">
       <textFields count="12">
         <textField/>
@@ -210,7 +227,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="13" name="SuppTable_shared_tier3.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="14" name="SuppTable_shared_tier3.csv" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:jtorres:TEMPO:SuppTable_shared_tier3.csv" comma="1">
       <textFields count="12">
         <textField/>
@@ -228,7 +245,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="14" name="table_eqtls_prettyNum.txt" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="15" name="table_eqtls_prettyNum.txt" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:jtorres:Desktop:Temp:table_eqtls_prettyNum.txt">
       <textFields count="14">
         <textField/>
@@ -248,7 +265,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="15" name="table_islet_genes_prettyNum.txt" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="16" name="table_islet_genes_prettyNum.txt" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:jtorres:Desktop:Temp:table_islet_genes_prettyNum.txt">
       <textFields count="18">
         <textField/>
@@ -6582,8 +6599,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6665,6 +6684,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6701,14 +6726,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="39">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -6727,6 +6746,7 @@
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6745,6 +6765,7 @@
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6753,43 +6774,47 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="supptab1" connectionId="11" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="coloc_380_clpp01_allpairs_expanded_ppa50" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="table_eqtls_prettyNum" connectionId="15" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="supp_table_1" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="table_eqtls_prettyNum" connectionId="14" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SuppTable_shared_tier1" connectionId="12" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="supptab1" connectionId="10" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="supp_table_2a" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SuppTable_shared_tier1" connectionId="11" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="supp_table_2b" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="supp_table_2c" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="supp_table_2b" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="brain-enrich" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="supp_table_3" connectionId="9" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="brain-enrich" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="coloc_380_clpp01_allpairs_expanded_ppa50" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="supp_table_4" connectionId="10" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7141,77 +7166,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>1542</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="27" t="s">
         <v>1541</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="27" t="s">
         <v>889</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="27" t="s">
         <v>1540</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="27" t="s">
         <v>891</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="27" t="s">
         <v>892</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="27" t="s">
         <v>893</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>1814</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="27" t="s">
         <v>1810</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25" t="s">
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27" t="s">
         <v>1802</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
       <c r="G4" s="13" t="s">
         <v>1808</v>
       </c>
@@ -25270,37 +25295,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>1834</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="20" t="s">
         <v>1830</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="27" t="s">
         <v>888</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="30" t="s">
+      <c r="C3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="27" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="20" t="s">
@@ -25309,22 +25334,22 @@
       <c r="G3" s="20" t="s">
         <v>1828</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="27" t="s">
         <v>1832</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
     </row>
     <row r="4" spans="1:12" ht="45">
       <c r="A4" s="22" t="s">
         <v>1831</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="25"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="22" t="s">
         <v>1827</v>
       </c>
@@ -30813,7 +30838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -30833,111 +30858,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>1841</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
     </row>
     <row r="5" spans="1:14" ht="40" customHeight="1">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="28" t="s">
         <v>1797</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="27" t="s">
         <v>1815</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="27" t="s">
         <v>1798</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="26"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="13" t="s">
         <v>1817</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>1816</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="23" t="s">
         <v>1799</v>
       </c>
       <c r="B8" s="18">
@@ -30951,7 +30976,7 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="23" t="s">
         <v>1800</v>
       </c>
       <c r="B9" s="18">
@@ -30965,7 +30990,7 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="23" t="s">
         <v>1840</v>
       </c>
       <c r="B10" s="18">
@@ -30979,7 +31004,7 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="24" t="s">
         <v>1801</v>
       </c>
       <c r="B11" s="19">
@@ -31018,9 +31043,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K382"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -31036,78 +31061,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>1825</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="28" t="s">
         <v>1818</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="27" t="s">
         <v>1819</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="27" t="s">
         <v>891</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="27" t="s">
         <v>892</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="28" t="s">
         <v>1820</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="27" t="s">
         <v>1548</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="27" t="s">
         <v>1821</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="28" t="s">
         <v>1824</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="25" t="s">
+      <c r="I3" s="28"/>
+      <c r="J3" s="27" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="26"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="13" t="s">
         <v>1822</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>1823</v>
       </c>
-      <c r="J4" s="25"/>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
@@ -31125,10 +31150,10 @@
       <c r="E5">
         <v>0.99600999999999995</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" t="s">
         <v>1549</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" t="s">
         <v>1550</v>
       </c>
       <c r="H5">
@@ -31157,10 +31182,10 @@
       <c r="E6">
         <v>0.99600999999999995</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" t="s">
         <v>1549</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" t="s">
         <v>1551</v>
       </c>
       <c r="H6">
@@ -31189,10 +31214,10 @@
       <c r="E7">
         <v>0.99600999999999995</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" t="s">
         <v>1549</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" t="s">
         <v>1552</v>
       </c>
       <c r="H7">
@@ -31221,10 +31246,10 @@
       <c r="E8">
         <v>0.97211999999999998</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" t="s">
         <v>1549</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" t="s">
         <v>36</v>
       </c>
       <c r="H8">
@@ -31253,10 +31278,10 @@
       <c r="E9">
         <v>0.97211999999999998</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" t="s">
         <v>1549</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" t="s">
         <v>1553</v>
       </c>
       <c r="H9">
@@ -31285,10 +31310,10 @@
       <c r="E10">
         <v>0.97211999999999998</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" t="s">
         <v>1554</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" t="s">
         <v>36</v>
       </c>
       <c r="H10">
@@ -31317,10 +31342,10 @@
       <c r="E11">
         <v>0.97211999999999998</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" t="s">
         <v>1555</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" t="s">
         <v>36</v>
       </c>
       <c r="H11">
@@ -31349,10 +31374,10 @@
       <c r="E12">
         <v>0.97211999999999998</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" t="s">
         <v>1555</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" t="s">
         <v>1553</v>
       </c>
       <c r="H12">
@@ -31381,10 +31406,10 @@
       <c r="E13">
         <v>0.97211999999999998</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" t="s">
         <v>1556</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" t="s">
         <v>1553</v>
       </c>
       <c r="H13">
@@ -31413,10 +31438,10 @@
       <c r="E14">
         <v>0.83572999999999997</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" t="s">
         <v>1557</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" t="s">
         <v>1558</v>
       </c>
       <c r="H14">
@@ -31445,10 +31470,10 @@
       <c r="E15">
         <v>0.83572999999999997</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" t="s">
         <v>1559</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" t="s">
         <v>1560</v>
       </c>
       <c r="H15">
@@ -31477,10 +31502,10 @@
       <c r="E16">
         <v>0.99966999999999995</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" t="s">
         <v>1561</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" t="s">
         <v>1562</v>
       </c>
       <c r="H16">
@@ -31509,10 +31534,10 @@
       <c r="E17">
         <v>0.99966999999999995</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" t="s">
         <v>1554</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" t="s">
         <v>1562</v>
       </c>
       <c r="H17">
@@ -31541,10 +31566,10 @@
       <c r="E18">
         <v>0.99966999999999995</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" t="s">
         <v>1563</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" t="s">
         <v>1562</v>
       </c>
       <c r="H18">
@@ -31573,10 +31598,10 @@
       <c r="E19">
         <v>0.99999000000000005</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" t="s">
         <v>1549</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" t="s">
         <v>1566</v>
       </c>
       <c r="H19">
@@ -31605,10 +31630,10 @@
       <c r="E20">
         <v>0.99999000000000005</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" t="s">
         <v>1549</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" t="s">
         <v>1567</v>
       </c>
       <c r="H20">
@@ -31637,10 +31662,10 @@
       <c r="E21">
         <v>0.99999000000000005</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" t="s">
         <v>1568</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" t="s">
         <v>1569</v>
       </c>
       <c r="H21">
@@ -31669,10 +31694,10 @@
       <c r="E22">
         <v>0.99999000000000005</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" t="s">
         <v>1570</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" t="s">
         <v>1569</v>
       </c>
       <c r="H22">
@@ -31701,10 +31726,10 @@
       <c r="E23">
         <v>0.99999000000000005</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" t="s">
         <v>1571</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" t="s">
         <v>1569</v>
       </c>
       <c r="H23">
@@ -31733,10 +31758,10 @@
       <c r="E24">
         <v>0.99999000000000005</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" t="s">
         <v>1572</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" t="s">
         <v>1569</v>
       </c>
       <c r="H24">
@@ -31765,10 +31790,10 @@
       <c r="E25">
         <v>0.99999000000000005</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" t="s">
         <v>1573</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" t="s">
         <v>1574</v>
       </c>
       <c r="H25">
@@ -31797,10 +31822,10 @@
       <c r="E26">
         <v>0.99999000000000005</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" t="s">
         <v>1573</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" t="s">
         <v>1569</v>
       </c>
       <c r="H26">
@@ -31829,10 +31854,10 @@
       <c r="E27">
         <v>0.99999000000000005</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" t="s">
         <v>1559</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G27" t="s">
         <v>1569</v>
       </c>
       <c r="H27">
@@ -31861,10 +31886,10 @@
       <c r="E28">
         <v>0.99999000000000005</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" t="s">
         <v>1575</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" t="s">
         <v>1569</v>
       </c>
       <c r="H28">
@@ -31893,10 +31918,10 @@
       <c r="E29">
         <v>0.99999000000000005</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" t="s">
         <v>1576</v>
       </c>
-      <c r="G29" s="16" t="s">
+      <c r="G29" t="s">
         <v>1569</v>
       </c>
       <c r="H29">
@@ -31925,10 +31950,10 @@
       <c r="E30">
         <v>0.99999000000000005</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" t="s">
         <v>1555</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" t="s">
         <v>1569</v>
       </c>
       <c r="H30">
@@ -31957,10 +31982,10 @@
       <c r="E31">
         <v>0.99999000000000005</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" t="s">
         <v>1577</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G31" t="s">
         <v>1569</v>
       </c>
       <c r="H31">
@@ -31989,10 +32014,10 @@
       <c r="E32">
         <v>0.99999000000000005</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" t="s">
         <v>1578</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" t="s">
         <v>1569</v>
       </c>
       <c r="H32">
@@ -32021,10 +32046,10 @@
       <c r="E33">
         <v>0.99999000000000005</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" t="s">
         <v>1579</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="G33" t="s">
         <v>1569</v>
       </c>
       <c r="H33">
@@ -32053,10 +32078,10 @@
       <c r="E34">
         <v>0.99999000000000005</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" t="s">
         <v>1580</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="G34" t="s">
         <v>1569</v>
       </c>
       <c r="H34">
@@ -32085,10 +32110,10 @@
       <c r="E35">
         <v>0.99999000000000005</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" t="s">
         <v>1581</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="G35" t="s">
         <v>1569</v>
       </c>
       <c r="H35">
@@ -32117,10 +32142,10 @@
       <c r="E36">
         <v>0.99999000000000005</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" t="s">
         <v>1582</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="G36" t="s">
         <v>1569</v>
       </c>
       <c r="H36">
@@ -32149,10 +32174,10 @@
       <c r="E37">
         <v>0.99999000000000005</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" t="s">
         <v>1565</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="G37" t="s">
         <v>1583</v>
       </c>
       <c r="H37">
@@ -32181,10 +32206,10 @@
       <c r="E38">
         <v>0.99999000000000005</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" t="s">
         <v>1584</v>
       </c>
-      <c r="G38" s="16" t="s">
+      <c r="G38" t="s">
         <v>1585</v>
       </c>
       <c r="H38">
@@ -32213,10 +32238,10 @@
       <c r="E39">
         <v>0.99999000000000005</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" t="s">
         <v>1584</v>
       </c>
-      <c r="G39" s="16" t="s">
+      <c r="G39" t="s">
         <v>1569</v>
       </c>
       <c r="H39">
@@ -32245,10 +32270,10 @@
       <c r="E40">
         <v>0.99433000000000005</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" t="s">
         <v>1549</v>
       </c>
-      <c r="G40" s="16" t="s">
+      <c r="G40" t="s">
         <v>1587</v>
       </c>
       <c r="H40">
@@ -32277,10 +32302,10 @@
       <c r="E41">
         <v>0.89700000000000002</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" t="s">
         <v>1549</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="G41" t="s">
         <v>1588</v>
       </c>
       <c r="H41">
@@ -32309,10 +32334,10 @@
       <c r="E42">
         <v>0.89700000000000002</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" t="s">
         <v>1549</v>
       </c>
-      <c r="G42" s="16" t="s">
+      <c r="G42" t="s">
         <v>1589</v>
       </c>
       <c r="H42">
@@ -32341,10 +32366,10 @@
       <c r="E43">
         <v>0.89700000000000002</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" t="s">
         <v>1549</v>
       </c>
-      <c r="G43" s="16" t="s">
+      <c r="G43" t="s">
         <v>1590</v>
       </c>
       <c r="H43">
@@ -32373,10 +32398,10 @@
       <c r="E44">
         <v>0.89700000000000002</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" t="s">
         <v>1549</v>
       </c>
-      <c r="G44" s="16" t="s">
+      <c r="G44" t="s">
         <v>1591</v>
       </c>
       <c r="H44">
@@ -32405,10 +32430,10 @@
       <c r="E45">
         <v>0.89700000000000002</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" t="s">
         <v>1549</v>
       </c>
-      <c r="G45" s="16" t="s">
+      <c r="G45" t="s">
         <v>1592</v>
       </c>
       <c r="H45">
@@ -32437,10 +32462,10 @@
       <c r="E46">
         <v>0.89700000000000002</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" t="s">
         <v>1549</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="G46" t="s">
         <v>1593</v>
       </c>
       <c r="H46">
@@ -32469,10 +32494,10 @@
       <c r="E47">
         <v>0.89700000000000002</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" t="s">
         <v>1549</v>
       </c>
-      <c r="G47" s="16" t="s">
+      <c r="G47" t="s">
         <v>1594</v>
       </c>
       <c r="H47">
@@ -32501,10 +32526,10 @@
       <c r="E48">
         <v>0.89700000000000002</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F48" t="s">
         <v>1549</v>
       </c>
-      <c r="G48" s="16" t="s">
+      <c r="G48" t="s">
         <v>1595</v>
       </c>
       <c r="H48">
@@ -32533,10 +32558,10 @@
       <c r="E49">
         <v>0.89700000000000002</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" t="s">
         <v>1568</v>
       </c>
-      <c r="G49" s="16" t="s">
+      <c r="G49" t="s">
         <v>1588</v>
       </c>
       <c r="H49">
@@ -32565,10 +32590,10 @@
       <c r="E50">
         <v>0.89700000000000002</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F50" t="s">
         <v>1596</v>
       </c>
-      <c r="G50" s="16" t="s">
+      <c r="G50" t="s">
         <v>1597</v>
       </c>
       <c r="H50">
@@ -32597,10 +32622,10 @@
       <c r="E51">
         <v>0.89700000000000002</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F51" t="s">
         <v>1573</v>
       </c>
-      <c r="G51" s="16" t="s">
+      <c r="G51" t="s">
         <v>1588</v>
       </c>
       <c r="H51">
@@ -32629,10 +32654,10 @@
       <c r="E52">
         <v>0.89700000000000002</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F52" t="s">
         <v>1561</v>
       </c>
-      <c r="G52" s="16" t="s">
+      <c r="G52" t="s">
         <v>1595</v>
       </c>
       <c r="H52">
@@ -32661,10 +32686,10 @@
       <c r="E53">
         <v>0.89700000000000002</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F53" t="s">
         <v>1554</v>
       </c>
-      <c r="G53" s="16" t="s">
+      <c r="G53" t="s">
         <v>1595</v>
       </c>
       <c r="H53">
@@ -32693,10 +32718,10 @@
       <c r="E54">
         <v>0.89700000000000002</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F54" t="s">
         <v>1598</v>
       </c>
-      <c r="G54" s="16" t="s">
+      <c r="G54" t="s">
         <v>1588</v>
       </c>
       <c r="H54">
@@ -32725,10 +32750,10 @@
       <c r="E55">
         <v>0.89700000000000002</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="F55" t="s">
         <v>1598</v>
       </c>
-      <c r="G55" s="16" t="s">
+      <c r="G55" t="s">
         <v>1591</v>
       </c>
       <c r="H55">
@@ -32757,10 +32782,10 @@
       <c r="E56">
         <v>0.89700000000000002</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" t="s">
         <v>1598</v>
       </c>
-      <c r="G56" s="16" t="s">
+      <c r="G56" t="s">
         <v>1595</v>
       </c>
       <c r="H56">
@@ -32789,10 +32814,10 @@
       <c r="E57">
         <v>0.89700000000000002</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="F57" t="s">
         <v>1575</v>
       </c>
-      <c r="G57" s="16" t="s">
+      <c r="G57" t="s">
         <v>1588</v>
       </c>
       <c r="H57">
@@ -32821,10 +32846,10 @@
       <c r="E58">
         <v>0.89700000000000002</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="F58" t="s">
         <v>1581</v>
       </c>
-      <c r="G58" s="16" t="s">
+      <c r="G58" t="s">
         <v>1599</v>
       </c>
       <c r="H58">
@@ -32853,10 +32878,10 @@
       <c r="E59">
         <v>0.89700000000000002</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="F59" t="s">
         <v>1581</v>
       </c>
-      <c r="G59" s="16" t="s">
+      <c r="G59" t="s">
         <v>1600</v>
       </c>
       <c r="H59">
@@ -32885,10 +32910,10 @@
       <c r="E60">
         <v>0.89700000000000002</v>
       </c>
-      <c r="F60" s="9" t="s">
+      <c r="F60" t="s">
         <v>1581</v>
       </c>
-      <c r="G60" s="16" t="s">
+      <c r="G60" t="s">
         <v>1597</v>
       </c>
       <c r="H60">
@@ -32917,10 +32942,10 @@
       <c r="E61">
         <v>0.89700000000000002</v>
       </c>
-      <c r="F61" s="9" t="s">
+      <c r="F61" t="s">
         <v>1582</v>
       </c>
-      <c r="G61" s="16" t="s">
+      <c r="G61" t="s">
         <v>1588</v>
       </c>
       <c r="H61">
@@ -32949,10 +32974,10 @@
       <c r="E62">
         <v>0.89700000000000002</v>
       </c>
-      <c r="F62" s="9" t="s">
+      <c r="F62" t="s">
         <v>1556</v>
       </c>
-      <c r="G62" s="16" t="s">
+      <c r="G62" t="s">
         <v>1588</v>
       </c>
       <c r="H62">
@@ -32981,10 +33006,10 @@
       <c r="E63">
         <v>0.89700000000000002</v>
       </c>
-      <c r="F63" s="9" t="s">
+      <c r="F63" t="s">
         <v>1564</v>
       </c>
-      <c r="G63" s="16" t="s">
+      <c r="G63" t="s">
         <v>1588</v>
       </c>
       <c r="H63">
@@ -33013,10 +33038,10 @@
       <c r="E64">
         <v>0.89700000000000002</v>
       </c>
-      <c r="F64" s="9" t="s">
+      <c r="F64" t="s">
         <v>1601</v>
       </c>
-      <c r="G64" s="16" t="s">
+      <c r="G64" t="s">
         <v>1588</v>
       </c>
       <c r="H64">
@@ -33045,10 +33070,10 @@
       <c r="E65">
         <v>0.89700000000000002</v>
       </c>
-      <c r="F65" s="9" t="s">
+      <c r="F65" t="s">
         <v>1584</v>
       </c>
-      <c r="G65" s="16" t="s">
+      <c r="G65" t="s">
         <v>1001</v>
       </c>
       <c r="H65">
@@ -33077,10 +33102,10 @@
       <c r="E66">
         <v>0.89700000000000002</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="F66" t="s">
         <v>1584</v>
       </c>
-      <c r="G66" s="16" t="s">
+      <c r="G66" t="s">
         <v>1589</v>
       </c>
       <c r="H66">
@@ -33109,10 +33134,10 @@
       <c r="E67">
         <v>0.89700000000000002</v>
       </c>
-      <c r="F67" s="9" t="s">
+      <c r="F67" t="s">
         <v>1586</v>
       </c>
-      <c r="G67" s="16" t="s">
+      <c r="G67" t="s">
         <v>1588</v>
       </c>
       <c r="H67">
@@ -33141,10 +33166,10 @@
       <c r="E68">
         <v>0.98587999999999998</v>
       </c>
-      <c r="F68" s="9" t="s">
+      <c r="F68" t="s">
         <v>1570</v>
       </c>
-      <c r="G68" s="16" t="s">
+      <c r="G68" t="s">
         <v>1605</v>
       </c>
       <c r="H68">
@@ -33173,10 +33198,10 @@
       <c r="E69">
         <v>0.98587999999999998</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="F69" t="s">
         <v>1559</v>
       </c>
-      <c r="G69" s="16" t="s">
+      <c r="G69" t="s">
         <v>1605</v>
       </c>
       <c r="H69">
@@ -33205,10 +33230,10 @@
       <c r="E70">
         <v>0.63360000000000005</v>
       </c>
-      <c r="F70" s="9" t="s">
+      <c r="F70" t="s">
         <v>1568</v>
       </c>
-      <c r="G70" s="16" t="s">
+      <c r="G70" t="s">
         <v>1606</v>
       </c>
       <c r="H70">
@@ -33237,10 +33262,10 @@
       <c r="E71">
         <v>0.63360000000000005</v>
       </c>
-      <c r="F71" s="9" t="s">
+      <c r="F71" t="s">
         <v>1570</v>
       </c>
-      <c r="G71" s="16" t="s">
+      <c r="G71" t="s">
         <v>1606</v>
       </c>
       <c r="H71">
@@ -33269,10 +33294,10 @@
       <c r="E72">
         <v>0.63360000000000005</v>
       </c>
-      <c r="F72" s="9" t="s">
+      <c r="F72" t="s">
         <v>1559</v>
       </c>
-      <c r="G72" s="16" t="s">
+      <c r="G72" t="s">
         <v>1606</v>
       </c>
       <c r="H72">
@@ -33301,10 +33326,10 @@
       <c r="E73">
         <v>0.63360000000000005</v>
       </c>
-      <c r="F73" s="9" t="s">
+      <c r="F73" t="s">
         <v>1555</v>
       </c>
-      <c r="G73" s="16" t="s">
+      <c r="G73" t="s">
         <v>1606</v>
       </c>
       <c r="H73">
@@ -33333,10 +33358,10 @@
       <c r="E74">
         <v>0.63360000000000005</v>
       </c>
-      <c r="F74" s="9" t="s">
+      <c r="F74" t="s">
         <v>1577</v>
       </c>
-      <c r="G74" s="16" t="s">
+      <c r="G74" t="s">
         <v>1606</v>
       </c>
       <c r="H74">
@@ -33365,10 +33390,10 @@
       <c r="E75">
         <v>0.63360000000000005</v>
       </c>
-      <c r="F75" s="9" t="s">
+      <c r="F75" t="s">
         <v>1564</v>
       </c>
-      <c r="G75" s="16" t="s">
+      <c r="G75" t="s">
         <v>1606</v>
       </c>
       <c r="H75">
@@ -33397,10 +33422,10 @@
       <c r="E76">
         <v>0.68545999999999996</v>
       </c>
-      <c r="F76" s="9" t="s">
+      <c r="F76" t="s">
         <v>1549</v>
       </c>
-      <c r="G76" s="16" t="s">
+      <c r="G76" t="s">
         <v>1607</v>
       </c>
       <c r="H76">
@@ -33429,10 +33454,10 @@
       <c r="E77">
         <v>0.68545999999999996</v>
       </c>
-      <c r="F77" s="9" t="s">
+      <c r="F77" t="s">
         <v>1549</v>
       </c>
-      <c r="G77" s="16" t="s">
+      <c r="G77" t="s">
         <v>1608</v>
       </c>
       <c r="H77">
@@ -33461,10 +33486,10 @@
       <c r="E78">
         <v>0.68545999999999996</v>
       </c>
-      <c r="F78" s="9" t="s">
+      <c r="F78" t="s">
         <v>1549</v>
       </c>
-      <c r="G78" s="16" t="s">
+      <c r="G78" t="s">
         <v>1609</v>
       </c>
       <c r="H78">
@@ -33493,10 +33518,10 @@
       <c r="E79">
         <v>0.68545999999999996</v>
       </c>
-      <c r="F79" s="9" t="s">
+      <c r="F79" t="s">
         <v>1549</v>
       </c>
-      <c r="G79" s="16" t="s">
+      <c r="G79" t="s">
         <v>1610</v>
       </c>
       <c r="H79">
@@ -33525,10 +33550,10 @@
       <c r="E80">
         <v>0.68545999999999996</v>
       </c>
-      <c r="F80" s="9" t="s">
+      <c r="F80" t="s">
         <v>1549</v>
       </c>
-      <c r="G80" s="16" t="s">
+      <c r="G80" t="s">
         <v>1611</v>
       </c>
       <c r="H80">
@@ -33557,10 +33582,10 @@
       <c r="E81">
         <v>0.68545999999999996</v>
       </c>
-      <c r="F81" s="9" t="s">
+      <c r="F81" t="s">
         <v>1549</v>
       </c>
-      <c r="G81" s="16" t="s">
+      <c r="G81" t="s">
         <v>1612</v>
       </c>
       <c r="H81">
@@ -33589,10 +33614,10 @@
       <c r="E82">
         <v>0.68545999999999996</v>
       </c>
-      <c r="F82" s="9" t="s">
+      <c r="F82" t="s">
         <v>1549</v>
       </c>
-      <c r="G82" s="16" t="s">
+      <c r="G82" t="s">
         <v>1613</v>
       </c>
       <c r="H82">
@@ -33621,10 +33646,10 @@
       <c r="E83">
         <v>0.68545999999999996</v>
       </c>
-      <c r="F83" s="9" t="s">
+      <c r="F83" t="s">
         <v>1549</v>
       </c>
-      <c r="G83" s="16" t="s">
+      <c r="G83" t="s">
         <v>1614</v>
       </c>
       <c r="H83">
@@ -33653,10 +33678,10 @@
       <c r="E84">
         <v>0.68545999999999996</v>
       </c>
-      <c r="F84" s="9" t="s">
+      <c r="F84" t="s">
         <v>1549</v>
       </c>
-      <c r="G84" s="16" t="s">
+      <c r="G84" t="s">
         <v>1615</v>
       </c>
       <c r="H84">
@@ -33685,10 +33710,10 @@
       <c r="E85">
         <v>0.68545999999999996</v>
       </c>
-      <c r="F85" s="9" t="s">
+      <c r="F85" t="s">
         <v>1549</v>
       </c>
-      <c r="G85" s="16" t="s">
+      <c r="G85" t="s">
         <v>1616</v>
       </c>
       <c r="H85">
@@ -33717,10 +33742,10 @@
       <c r="E86">
         <v>0.68545999999999996</v>
       </c>
-      <c r="F86" s="9" t="s">
+      <c r="F86" t="s">
         <v>1549</v>
       </c>
-      <c r="G86" s="16" t="s">
+      <c r="G86" t="s">
         <v>1617</v>
       </c>
       <c r="H86">
@@ -33749,10 +33774,10 @@
       <c r="E87">
         <v>0.68545999999999996</v>
       </c>
-      <c r="F87" s="9" t="s">
+      <c r="F87" t="s">
         <v>1549</v>
       </c>
-      <c r="G87" s="16" t="s">
+      <c r="G87" t="s">
         <v>1618</v>
       </c>
       <c r="H87">
@@ -33781,10 +33806,10 @@
       <c r="E88">
         <v>0.68545999999999996</v>
       </c>
-      <c r="F88" s="9" t="s">
+      <c r="F88" t="s">
         <v>1571</v>
       </c>
-      <c r="G88" s="16" t="s">
+      <c r="G88" t="s">
         <v>1617</v>
       </c>
       <c r="H88">
@@ -33813,10 +33838,10 @@
       <c r="E89">
         <v>0.68545999999999996</v>
       </c>
-      <c r="F89" s="9" t="s">
+      <c r="F89" t="s">
         <v>1561</v>
       </c>
-      <c r="G89" s="16" t="s">
+      <c r="G89" t="s">
         <v>1617</v>
       </c>
       <c r="H89">
@@ -33845,10 +33870,10 @@
       <c r="E90">
         <v>0.68545999999999996</v>
       </c>
-      <c r="F90" s="9" t="s">
+      <c r="F90" t="s">
         <v>1554</v>
       </c>
-      <c r="G90" s="16" t="s">
+      <c r="G90" t="s">
         <v>1617</v>
       </c>
       <c r="H90">
@@ -33877,10 +33902,10 @@
       <c r="E91">
         <v>0.68545999999999996</v>
       </c>
-      <c r="F91" s="9" t="s">
+      <c r="F91" t="s">
         <v>1619</v>
       </c>
-      <c r="G91" s="16" t="s">
+      <c r="G91" t="s">
         <v>1617</v>
       </c>
       <c r="H91">
@@ -33909,10 +33934,10 @@
       <c r="E92">
         <v>0.68545999999999996</v>
       </c>
-      <c r="F92" s="9" t="s">
+      <c r="F92" t="s">
         <v>1620</v>
       </c>
-      <c r="G92" s="16" t="s">
+      <c r="G92" t="s">
         <v>1617</v>
       </c>
       <c r="H92">
@@ -33941,10 +33966,10 @@
       <c r="E93">
         <v>0.68545999999999996</v>
       </c>
-      <c r="F93" s="9" t="s">
+      <c r="F93" t="s">
         <v>1559</v>
       </c>
-      <c r="G93" s="16" t="s">
+      <c r="G93" t="s">
         <v>1617</v>
       </c>
       <c r="H93">
@@ -33973,10 +33998,10 @@
       <c r="E94">
         <v>0.68545999999999996</v>
       </c>
-      <c r="F94" s="9" t="s">
+      <c r="F94" t="s">
         <v>1598</v>
       </c>
-      <c r="G94" s="16" t="s">
+      <c r="G94" t="s">
         <v>1617</v>
       </c>
       <c r="H94">
@@ -34005,10 +34030,10 @@
       <c r="E95">
         <v>0.68545999999999996</v>
       </c>
-      <c r="F95" s="9" t="s">
+      <c r="F95" t="s">
         <v>1603</v>
       </c>
-      <c r="G95" s="16" t="s">
+      <c r="G95" t="s">
         <v>1617</v>
       </c>
       <c r="H95">
@@ -34037,10 +34062,10 @@
       <c r="E96">
         <v>0.68545999999999996</v>
       </c>
-      <c r="F96" s="9" t="s">
+      <c r="F96" t="s">
         <v>1575</v>
       </c>
-      <c r="G96" s="16" t="s">
+      <c r="G96" t="s">
         <v>1617</v>
       </c>
       <c r="H96">
@@ -34069,10 +34094,10 @@
       <c r="E97">
         <v>0.68545999999999996</v>
       </c>
-      <c r="F97" s="9" t="s">
+      <c r="F97" t="s">
         <v>1576</v>
       </c>
-      <c r="G97" s="16" t="s">
+      <c r="G97" t="s">
         <v>1617</v>
       </c>
       <c r="H97">
@@ -34101,10 +34126,10 @@
       <c r="E98">
         <v>0.68545999999999996</v>
       </c>
-      <c r="F98" s="9" t="s">
+      <c r="F98" t="s">
         <v>1577</v>
       </c>
-      <c r="G98" s="16" t="s">
+      <c r="G98" t="s">
         <v>1617</v>
       </c>
       <c r="H98">
@@ -34133,10 +34158,10 @@
       <c r="E99">
         <v>0.68545999999999996</v>
       </c>
-      <c r="F99" s="9" t="s">
+      <c r="F99" t="s">
         <v>1580</v>
       </c>
-      <c r="G99" s="16" t="s">
+      <c r="G99" t="s">
         <v>1617</v>
       </c>
       <c r="H99">
@@ -34165,10 +34190,10 @@
       <c r="E100">
         <v>0.68545999999999996</v>
       </c>
-      <c r="F100" s="9" t="s">
+      <c r="F100" t="s">
         <v>1602</v>
       </c>
-      <c r="G100" s="16" t="s">
+      <c r="G100" t="s">
         <v>1617</v>
       </c>
       <c r="H100">
@@ -34197,10 +34222,10 @@
       <c r="E101">
         <v>0.68545999999999996</v>
       </c>
-      <c r="F101" s="9" t="s">
+      <c r="F101" t="s">
         <v>1564</v>
       </c>
-      <c r="G101" s="16" t="s">
+      <c r="G101" t="s">
         <v>1617</v>
       </c>
       <c r="H101">
@@ -34229,10 +34254,10 @@
       <c r="E102">
         <v>0.68545999999999996</v>
       </c>
-      <c r="F102" s="9" t="s">
+      <c r="F102" t="s">
         <v>1565</v>
       </c>
-      <c r="G102" s="16" t="s">
+      <c r="G102" t="s">
         <v>1617</v>
       </c>
       <c r="H102">
@@ -34261,10 +34286,10 @@
       <c r="E103">
         <v>0.68545999999999996</v>
       </c>
-      <c r="F103" s="9" t="s">
+      <c r="F103" t="s">
         <v>1584</v>
       </c>
-      <c r="G103" s="16" t="s">
+      <c r="G103" t="s">
         <v>1621</v>
       </c>
       <c r="H103">
@@ -34293,10 +34318,10 @@
       <c r="E104">
         <v>0.86082000000000003</v>
       </c>
-      <c r="F104" s="9" t="s">
+      <c r="F104" t="s">
         <v>1549</v>
       </c>
-      <c r="G104" s="16" t="s">
+      <c r="G104" t="s">
         <v>1627</v>
       </c>
       <c r="H104">
@@ -34325,10 +34350,10 @@
       <c r="E105">
         <v>0.86082000000000003</v>
       </c>
-      <c r="F105" s="9" t="s">
+      <c r="F105" t="s">
         <v>1549</v>
       </c>
-      <c r="G105" s="16" t="s">
+      <c r="G105" t="s">
         <v>1628</v>
       </c>
       <c r="H105">
@@ -34357,10 +34382,10 @@
       <c r="E106">
         <v>0.7107</v>
       </c>
-      <c r="F106" s="9" t="s">
+      <c r="F106" t="s">
         <v>1549</v>
       </c>
-      <c r="G106" s="16" t="s">
+      <c r="G106" t="s">
         <v>1629</v>
       </c>
       <c r="H106">
@@ -34389,10 +34414,10 @@
       <c r="E107">
         <v>0.78852999999999995</v>
       </c>
-      <c r="F107" s="9" t="s">
+      <c r="F107" t="s">
         <v>1549</v>
       </c>
-      <c r="G107" s="16" t="s">
+      <c r="G107" t="s">
         <v>1630</v>
       </c>
       <c r="H107">
@@ -34421,10 +34446,10 @@
       <c r="E108">
         <v>0.78852999999999995</v>
       </c>
-      <c r="F108" s="9" t="s">
+      <c r="F108" t="s">
         <v>1549</v>
       </c>
-      <c r="G108" s="16" t="s">
+      <c r="G108" t="s">
         <v>48</v>
       </c>
       <c r="H108">
@@ -34453,10 +34478,10 @@
       <c r="E109">
         <v>0.78852999999999995</v>
       </c>
-      <c r="F109" s="9" t="s">
+      <c r="F109" t="s">
         <v>1549</v>
       </c>
-      <c r="G109" s="16" t="s">
+      <c r="G109" t="s">
         <v>1631</v>
       </c>
       <c r="H109">
@@ -34485,10 +34510,10 @@
       <c r="E110">
         <v>0.78852999999999995</v>
       </c>
-      <c r="F110" s="9" t="s">
+      <c r="F110" t="s">
         <v>1549</v>
       </c>
-      <c r="G110" s="16" t="s">
+      <c r="G110" t="s">
         <v>1632</v>
       </c>
       <c r="H110">
@@ -34517,10 +34542,10 @@
       <c r="E111">
         <v>0.78852999999999995</v>
       </c>
-      <c r="F111" s="9" t="s">
+      <c r="F111" t="s">
         <v>1580</v>
       </c>
-      <c r="G111" s="16" t="s">
+      <c r="G111" t="s">
         <v>48</v>
       </c>
       <c r="H111">
@@ -34549,10 +34574,10 @@
       <c r="E112">
         <v>0.94074999999999998</v>
       </c>
-      <c r="F112" s="9" t="s">
+      <c r="F112" t="s">
         <v>1549</v>
       </c>
-      <c r="G112" s="16" t="s">
+      <c r="G112" t="s">
         <v>157</v>
       </c>
       <c r="H112">
@@ -34581,10 +34606,10 @@
       <c r="E113">
         <v>0.94074999999999998</v>
       </c>
-      <c r="F113" s="9" t="s">
+      <c r="F113" t="s">
         <v>1549</v>
       </c>
-      <c r="G113" s="16" t="s">
+      <c r="G113" t="s">
         <v>1634</v>
       </c>
       <c r="H113">
@@ -34613,10 +34638,10 @@
       <c r="E114">
         <v>0.94074999999999998</v>
       </c>
-      <c r="F114" s="9" t="s">
+      <c r="F114" t="s">
         <v>1549</v>
       </c>
-      <c r="G114" s="16" t="s">
+      <c r="G114" t="s">
         <v>1635</v>
       </c>
       <c r="H114">
@@ -34645,10 +34670,10 @@
       <c r="E115">
         <v>0.94074999999999998</v>
       </c>
-      <c r="F115" s="9" t="s">
+      <c r="F115" t="s">
         <v>1549</v>
       </c>
-      <c r="G115" s="16" t="s">
+      <c r="G115" t="s">
         <v>1636</v>
       </c>
       <c r="H115">
@@ -34677,10 +34702,10 @@
       <c r="E116">
         <v>0.94074999999999998</v>
       </c>
-      <c r="F116" s="9" t="s">
+      <c r="F116" t="s">
         <v>1549</v>
       </c>
-      <c r="G116" s="16" t="s">
+      <c r="G116" t="s">
         <v>1637</v>
       </c>
       <c r="H116">
@@ -34709,10 +34734,10 @@
       <c r="E117">
         <v>0.94074999999999998</v>
       </c>
-      <c r="F117" s="9" t="s">
+      <c r="F117" t="s">
         <v>1549</v>
       </c>
-      <c r="G117" s="16" t="s">
+      <c r="G117" t="s">
         <v>1638</v>
       </c>
       <c r="H117">
@@ -34741,10 +34766,10 @@
       <c r="E118">
         <v>0.98541000000000001</v>
       </c>
-      <c r="F118" s="9" t="s">
+      <c r="F118" t="s">
         <v>1549</v>
       </c>
-      <c r="G118" s="16" t="s">
+      <c r="G118" t="s">
         <v>194</v>
       </c>
       <c r="H118">
@@ -34773,10 +34798,10 @@
       <c r="E119">
         <v>0.98541000000000001</v>
       </c>
-      <c r="F119" s="9" t="s">
+      <c r="F119" t="s">
         <v>1549</v>
       </c>
-      <c r="G119" s="16" t="s">
+      <c r="G119" t="s">
         <v>1637</v>
       </c>
       <c r="H119">
@@ -34805,10 +34830,10 @@
       <c r="E120">
         <v>0.98541000000000001</v>
       </c>
-      <c r="F120" s="9" t="s">
+      <c r="F120" t="s">
         <v>1549</v>
       </c>
-      <c r="G120" s="16" t="s">
+      <c r="G120" t="s">
         <v>1639</v>
       </c>
       <c r="H120">
@@ -34837,10 +34862,10 @@
       <c r="E121">
         <v>0.98541000000000001</v>
       </c>
-      <c r="F121" s="9" t="s">
+      <c r="F121" t="s">
         <v>1584</v>
       </c>
-      <c r="G121" s="16" t="s">
+      <c r="G121" t="s">
         <v>194</v>
       </c>
       <c r="H121">
@@ -34869,10 +34894,10 @@
       <c r="E122">
         <v>0.72321999999999997</v>
       </c>
-      <c r="F122" s="9" t="s">
+      <c r="F122" t="s">
         <v>1549</v>
       </c>
-      <c r="G122" s="16" t="s">
+      <c r="G122" t="s">
         <v>1640</v>
       </c>
       <c r="H122">
@@ -34901,10 +34926,10 @@
       <c r="E123">
         <v>0.72321999999999997</v>
       </c>
-      <c r="F123" s="9" t="s">
+      <c r="F123" t="s">
         <v>1549</v>
       </c>
-      <c r="G123" s="16" t="s">
+      <c r="G123" t="s">
         <v>1641</v>
       </c>
       <c r="H123">
@@ -34933,10 +34958,10 @@
       <c r="E124">
         <v>0.72321999999999997</v>
       </c>
-      <c r="F124" s="9" t="s">
+      <c r="F124" t="s">
         <v>1549</v>
       </c>
-      <c r="G124" s="16" t="s">
+      <c r="G124" t="s">
         <v>1642</v>
       </c>
       <c r="H124">
@@ -34965,10 +34990,10 @@
       <c r="E125">
         <v>0.72321999999999997</v>
       </c>
-      <c r="F125" s="9" t="s">
+      <c r="F125" t="s">
         <v>1580</v>
       </c>
-      <c r="G125" s="16" t="s">
+      <c r="G125" t="s">
         <v>1643</v>
       </c>
       <c r="H125">
@@ -34997,10 +35022,10 @@
       <c r="E126">
         <v>0.72321999999999997</v>
       </c>
-      <c r="F126" s="9" t="s">
+      <c r="F126" t="s">
         <v>1582</v>
       </c>
-      <c r="G126" s="16" t="s">
+      <c r="G126" t="s">
         <v>1643</v>
       </c>
       <c r="H126">
@@ -35029,10 +35054,10 @@
       <c r="E127">
         <v>0.72321999999999997</v>
       </c>
-      <c r="F127" s="9" t="s">
+      <c r="F127" t="s">
         <v>1564</v>
       </c>
-      <c r="G127" s="16" t="s">
+      <c r="G127" t="s">
         <v>1643</v>
       </c>
       <c r="H127">
@@ -35061,10 +35086,10 @@
       <c r="E128">
         <v>0.72321999999999997</v>
       </c>
-      <c r="F128" s="9" t="s">
+      <c r="F128" t="s">
         <v>1584</v>
       </c>
-      <c r="G128" s="16" t="s">
+      <c r="G128" t="s">
         <v>1643</v>
       </c>
       <c r="H128">
@@ -35093,10 +35118,10 @@
       <c r="E129">
         <v>0.72321999999999997</v>
       </c>
-      <c r="F129" s="9" t="s">
+      <c r="F129" t="s">
         <v>1586</v>
       </c>
-      <c r="G129" s="16" t="s">
+      <c r="G129" t="s">
         <v>1644</v>
       </c>
       <c r="H129">
@@ -35125,10 +35150,10 @@
       <c r="E130">
         <v>0.94618000000000002</v>
       </c>
-      <c r="F130" s="9" t="s">
+      <c r="F130" t="s">
         <v>1549</v>
       </c>
-      <c r="G130" s="16" t="s">
+      <c r="G130" t="s">
         <v>1645</v>
       </c>
       <c r="H130">
@@ -35157,10 +35182,10 @@
       <c r="E131">
         <v>0.94618000000000002</v>
       </c>
-      <c r="F131" s="9" t="s">
+      <c r="F131" t="s">
         <v>1549</v>
       </c>
-      <c r="G131" s="16" t="s">
+      <c r="G131" t="s">
         <v>1646</v>
       </c>
       <c r="H131">
@@ -35189,10 +35214,10 @@
       <c r="E132">
         <v>0.94618000000000002</v>
       </c>
-      <c r="F132" s="9" t="s">
+      <c r="F132" t="s">
         <v>1549</v>
       </c>
-      <c r="G132" s="16" t="s">
+      <c r="G132" t="s">
         <v>1647</v>
       </c>
       <c r="H132">
@@ -35221,10 +35246,10 @@
       <c r="E133">
         <v>0.94618000000000002</v>
       </c>
-      <c r="F133" s="9" t="s">
+      <c r="F133" t="s">
         <v>1549</v>
       </c>
-      <c r="G133" s="16" t="s">
+      <c r="G133" t="s">
         <v>1648</v>
       </c>
       <c r="H133">
@@ -35253,10 +35278,10 @@
       <c r="E134">
         <v>0.94618000000000002</v>
       </c>
-      <c r="F134" s="9" t="s">
+      <c r="F134" t="s">
         <v>1549</v>
       </c>
-      <c r="G134" s="16" t="s">
+      <c r="G134" t="s">
         <v>1649</v>
       </c>
       <c r="H134">
@@ -35285,10 +35310,10 @@
       <c r="E135">
         <v>0.99055000000000004</v>
       </c>
-      <c r="F135" s="9" t="s">
+      <c r="F135" t="s">
         <v>1549</v>
       </c>
-      <c r="G135" s="16" t="s">
+      <c r="G135" t="s">
         <v>1651</v>
       </c>
       <c r="H135">
@@ -35317,10 +35342,10 @@
       <c r="E136">
         <v>0.63387000000000004</v>
       </c>
-      <c r="F136" s="9" t="s">
+      <c r="F136" t="s">
         <v>1549</v>
       </c>
-      <c r="G136" s="16" t="s">
+      <c r="G136" t="s">
         <v>1652</v>
       </c>
       <c r="H136">
@@ -35349,10 +35374,10 @@
       <c r="E137">
         <v>0.63387000000000004</v>
       </c>
-      <c r="F137" s="9" t="s">
+      <c r="F137" t="s">
         <v>1549</v>
       </c>
-      <c r="G137" s="16" t="s">
+      <c r="G137" t="s">
         <v>1653</v>
       </c>
       <c r="H137">
@@ -35381,10 +35406,10 @@
       <c r="E138">
         <v>0.63387000000000004</v>
       </c>
-      <c r="F138" s="9" t="s">
+      <c r="F138" t="s">
         <v>1549</v>
       </c>
-      <c r="G138" s="16" t="s">
+      <c r="G138" t="s">
         <v>1654</v>
       </c>
       <c r="H138">
@@ -35413,10 +35438,10 @@
       <c r="E139">
         <v>0.63387000000000004</v>
       </c>
-      <c r="F139" s="9" t="s">
+      <c r="F139" t="s">
         <v>1549</v>
       </c>
-      <c r="G139" s="16" t="s">
+      <c r="G139" t="s">
         <v>1655</v>
       </c>
       <c r="H139">
@@ -35445,10 +35470,10 @@
       <c r="E140">
         <v>0.63387000000000004</v>
       </c>
-      <c r="F140" s="9" t="s">
+      <c r="F140" t="s">
         <v>1549</v>
       </c>
-      <c r="G140" s="16" t="s">
+      <c r="G140" t="s">
         <v>1656</v>
       </c>
       <c r="H140">
@@ -35477,10 +35502,10 @@
       <c r="E141">
         <v>0.63387000000000004</v>
       </c>
-      <c r="F141" s="9" t="s">
+      <c r="F141" t="s">
         <v>1549</v>
       </c>
-      <c r="G141" s="16" t="s">
+      <c r="G141" t="s">
         <v>1657</v>
       </c>
       <c r="H141">
@@ -35509,10 +35534,10 @@
       <c r="E142">
         <v>0.63387000000000004</v>
       </c>
-      <c r="F142" s="9" t="s">
+      <c r="F142" t="s">
         <v>1549</v>
       </c>
-      <c r="G142" s="16" t="s">
+      <c r="G142" t="s">
         <v>1658</v>
       </c>
       <c r="H142">
@@ -35541,10 +35566,10 @@
       <c r="E143">
         <v>0.63387000000000004</v>
       </c>
-      <c r="F143" s="9" t="s">
+      <c r="F143" t="s">
         <v>1549</v>
       </c>
-      <c r="G143" s="16" t="s">
+      <c r="G143" t="s">
         <v>1659</v>
       </c>
       <c r="H143">
@@ -35573,10 +35598,10 @@
       <c r="E144">
         <v>0.63387000000000004</v>
       </c>
-      <c r="F144" s="9" t="s">
+      <c r="F144" t="s">
         <v>1549</v>
       </c>
-      <c r="G144" s="16" t="s">
+      <c r="G144" t="s">
         <v>1660</v>
       </c>
       <c r="H144">
@@ -35605,10 +35630,10 @@
       <c r="E145">
         <v>0.57723000000000002</v>
       </c>
-      <c r="F145" s="9" t="s">
+      <c r="F145" t="s">
         <v>1549</v>
       </c>
-      <c r="G145" s="16" t="s">
+      <c r="G145" t="s">
         <v>1078</v>
       </c>
       <c r="H145">
@@ -35637,10 +35662,10 @@
       <c r="E146">
         <v>0.57723000000000002</v>
       </c>
-      <c r="F146" s="9" t="s">
+      <c r="F146" t="s">
         <v>1598</v>
       </c>
-      <c r="G146" s="16" t="s">
+      <c r="G146" t="s">
         <v>1078</v>
       </c>
       <c r="H146">
@@ -35669,10 +35694,10 @@
       <c r="E147">
         <v>0.96192</v>
       </c>
-      <c r="F147" s="9" t="s">
+      <c r="F147" t="s">
         <v>1549</v>
       </c>
-      <c r="G147" s="16" t="s">
+      <c r="G147" t="s">
         <v>1661</v>
       </c>
       <c r="H147">
@@ -35701,10 +35726,10 @@
       <c r="E148">
         <v>0.96192</v>
       </c>
-      <c r="F148" s="9" t="s">
+      <c r="F148" t="s">
         <v>1573</v>
       </c>
-      <c r="G148" s="16" t="s">
+      <c r="G148" t="s">
         <v>1662</v>
       </c>
       <c r="H148">
@@ -35733,10 +35758,10 @@
       <c r="E149">
         <v>0.98440000000000005</v>
       </c>
-      <c r="F149" s="9" t="s">
+      <c r="F149" t="s">
         <v>1549</v>
       </c>
-      <c r="G149" s="16" t="s">
+      <c r="G149" t="s">
         <v>1663</v>
       </c>
       <c r="H149">
@@ -35765,10 +35790,10 @@
       <c r="E150">
         <v>0.98440000000000005</v>
       </c>
-      <c r="F150" s="9" t="s">
+      <c r="F150" t="s">
         <v>1549</v>
       </c>
-      <c r="G150" s="16" t="s">
+      <c r="G150" t="s">
         <v>1664</v>
       </c>
       <c r="H150">
@@ -35797,10 +35822,10 @@
       <c r="E151">
         <v>0.98440000000000005</v>
       </c>
-      <c r="F151" s="9" t="s">
+      <c r="F151" t="s">
         <v>1549</v>
       </c>
-      <c r="G151" s="16" t="s">
+      <c r="G151" t="s">
         <v>1665</v>
       </c>
       <c r="H151">
@@ -35829,10 +35854,10 @@
       <c r="E152">
         <v>0.98440000000000005</v>
       </c>
-      <c r="F152" s="9" t="s">
+      <c r="F152" t="s">
         <v>1549</v>
       </c>
-      <c r="G152" s="16" t="s">
+      <c r="G152" t="s">
         <v>1666</v>
       </c>
       <c r="H152">
@@ -35861,10 +35886,10 @@
       <c r="E153">
         <v>0.98440000000000005</v>
       </c>
-      <c r="F153" s="9" t="s">
+      <c r="F153" t="s">
         <v>1575</v>
       </c>
-      <c r="G153" s="16" t="s">
+      <c r="G153" t="s">
         <v>1667</v>
       </c>
       <c r="H153">
@@ -35893,10 +35918,10 @@
       <c r="E154">
         <v>0.98440000000000005</v>
       </c>
-      <c r="F154" s="9" t="s">
+      <c r="F154" t="s">
         <v>1584</v>
       </c>
-      <c r="G154" s="16" t="s">
+      <c r="G154" t="s">
         <v>588</v>
       </c>
       <c r="H154">
@@ -35925,10 +35950,10 @@
       <c r="E155">
         <v>0.97279000000000004</v>
       </c>
-      <c r="F155" s="9" t="s">
+      <c r="F155" t="s">
         <v>1549</v>
       </c>
-      <c r="G155" s="16" t="s">
+      <c r="G155" t="s">
         <v>1668</v>
       </c>
       <c r="H155">
@@ -35957,10 +35982,10 @@
       <c r="E156">
         <v>0.97279000000000004</v>
       </c>
-      <c r="F156" s="9" t="s">
+      <c r="F156" t="s">
         <v>1549</v>
       </c>
-      <c r="G156" s="16" t="s">
+      <c r="G156" t="s">
         <v>1669</v>
       </c>
       <c r="H156">
@@ -35989,10 +36014,10 @@
       <c r="E157">
         <v>0.97279000000000004</v>
       </c>
-      <c r="F157" s="9" t="s">
+      <c r="F157" t="s">
         <v>1549</v>
       </c>
-      <c r="G157" s="16" t="s">
+      <c r="G157" t="s">
         <v>608</v>
       </c>
       <c r="H157">
@@ -36021,10 +36046,10 @@
       <c r="E158">
         <v>0.97279000000000004</v>
       </c>
-      <c r="F158" s="9" t="s">
+      <c r="F158" t="s">
         <v>1568</v>
       </c>
-      <c r="G158" s="16" t="s">
+      <c r="G158" t="s">
         <v>144</v>
       </c>
       <c r="H158">
@@ -36053,10 +36078,10 @@
       <c r="E159">
         <v>0.97279000000000004</v>
       </c>
-      <c r="F159" s="9" t="s">
+      <c r="F159" t="s">
         <v>1578</v>
       </c>
-      <c r="G159" s="16" t="s">
+      <c r="G159" t="s">
         <v>144</v>
       </c>
       <c r="H159">
@@ -36085,10 +36110,10 @@
       <c r="E160">
         <v>0.97279000000000004</v>
       </c>
-      <c r="F160" s="9" t="s">
+      <c r="F160" t="s">
         <v>1581</v>
       </c>
-      <c r="G160" s="16" t="s">
+      <c r="G160" t="s">
         <v>144</v>
       </c>
       <c r="H160">
@@ -36117,10 +36142,10 @@
       <c r="E161">
         <v>0.97343000000000002</v>
       </c>
-      <c r="F161" s="9" t="s">
+      <c r="F161" t="s">
         <v>1549</v>
       </c>
-      <c r="G161" s="16" t="s">
+      <c r="G161" t="s">
         <v>1671</v>
       </c>
       <c r="H161">
@@ -36149,10 +36174,10 @@
       <c r="E162">
         <v>0.97343000000000002</v>
       </c>
-      <c r="F162" s="9" t="s">
+      <c r="F162" t="s">
         <v>1549</v>
       </c>
-      <c r="G162" s="16" t="s">
+      <c r="G162" t="s">
         <v>1672</v>
       </c>
       <c r="H162">
@@ -36181,10 +36206,10 @@
       <c r="E163">
         <v>0.97343000000000002</v>
       </c>
-      <c r="F163" s="9" t="s">
+      <c r="F163" t="s">
         <v>1549</v>
       </c>
-      <c r="G163" s="16" t="s">
+      <c r="G163" t="s">
         <v>1673</v>
       </c>
       <c r="H163">
@@ -36213,10 +36238,10 @@
       <c r="E164">
         <v>0.65332999999999997</v>
       </c>
-      <c r="F164" s="9" t="s">
+      <c r="F164" t="s">
         <v>1549</v>
       </c>
-      <c r="G164" s="16" t="s">
+      <c r="G164" t="s">
         <v>1674</v>
       </c>
       <c r="H164">
@@ -36245,10 +36270,10 @@
       <c r="E165">
         <v>0.91737999999999997</v>
       </c>
-      <c r="F165" s="9" t="s">
+      <c r="F165" t="s">
         <v>1549</v>
       </c>
-      <c r="G165" s="16" t="s">
+      <c r="G165" t="s">
         <v>1675</v>
       </c>
       <c r="H165">
@@ -36277,10 +36302,10 @@
       <c r="E166">
         <v>0.91737999999999997</v>
       </c>
-      <c r="F166" s="9" t="s">
+      <c r="F166" t="s">
         <v>1549</v>
       </c>
-      <c r="G166" s="16" t="s">
+      <c r="G166" t="s">
         <v>1676</v>
       </c>
       <c r="H166">
@@ -36309,10 +36334,10 @@
       <c r="E167">
         <v>0.91737999999999997</v>
       </c>
-      <c r="F167" s="9" t="s">
+      <c r="F167" t="s">
         <v>1549</v>
       </c>
-      <c r="G167" s="16" t="s">
+      <c r="G167" t="s">
         <v>1677</v>
       </c>
       <c r="H167">
@@ -36341,10 +36366,10 @@
       <c r="E168">
         <v>0.91737999999999997</v>
       </c>
-      <c r="F168" s="9" t="s">
+      <c r="F168" t="s">
         <v>1549</v>
       </c>
-      <c r="G168" s="16" t="s">
+      <c r="G168" t="s">
         <v>1678</v>
       </c>
       <c r="H168">
@@ -36373,10 +36398,10 @@
       <c r="E169">
         <v>0.91737999999999997</v>
       </c>
-      <c r="F169" s="9" t="s">
+      <c r="F169" t="s">
         <v>1549</v>
       </c>
-      <c r="G169" s="16" t="s">
+      <c r="G169" t="s">
         <v>1679</v>
       </c>
       <c r="H169">
@@ -36405,10 +36430,10 @@
       <c r="E170">
         <v>0.91737999999999997</v>
       </c>
-      <c r="F170" s="9" t="s">
+      <c r="F170" t="s">
         <v>1598</v>
       </c>
-      <c r="G170" s="16" t="s">
+      <c r="G170" t="s">
         <v>1680</v>
       </c>
       <c r="H170">
@@ -36437,10 +36462,10 @@
       <c r="E171">
         <v>0.91737999999999997</v>
       </c>
-      <c r="F171" s="9" t="s">
+      <c r="F171" t="s">
         <v>1577</v>
       </c>
-      <c r="G171" s="16" t="s">
+      <c r="G171" t="s">
         <v>1681</v>
       </c>
       <c r="H171">
@@ -36469,10 +36494,10 @@
       <c r="E172">
         <v>0.91737999999999997</v>
       </c>
-      <c r="F172" s="9" t="s">
+      <c r="F172" t="s">
         <v>1581</v>
       </c>
-      <c r="G172" s="16" t="s">
+      <c r="G172" t="s">
         <v>656</v>
       </c>
       <c r="H172">
@@ -36501,10 +36526,10 @@
       <c r="E173">
         <v>0.91737999999999997</v>
       </c>
-      <c r="F173" s="9" t="s">
+      <c r="F173" t="s">
         <v>1581</v>
       </c>
-      <c r="G173" s="16" t="s">
+      <c r="G173" t="s">
         <v>1682</v>
       </c>
       <c r="H173">
@@ -36533,10 +36558,10 @@
       <c r="E174">
         <v>0.82394000000000001</v>
       </c>
-      <c r="F174" s="9" t="s">
+      <c r="F174" t="s">
         <v>1549</v>
       </c>
-      <c r="G174" s="16" t="s">
+      <c r="G174" t="s">
         <v>660</v>
       </c>
       <c r="H174">
@@ -36565,10 +36590,10 @@
       <c r="E175">
         <v>0.82394000000000001</v>
       </c>
-      <c r="F175" s="9" t="s">
+      <c r="F175" t="s">
         <v>1603</v>
       </c>
-      <c r="G175" s="16" t="s">
+      <c r="G175" t="s">
         <v>1683</v>
       </c>
       <c r="H175">
@@ -36597,10 +36622,10 @@
       <c r="E176">
         <v>1</v>
       </c>
-      <c r="F176" s="9" t="s">
+      <c r="F176" t="s">
         <v>1549</v>
       </c>
-      <c r="G176" s="16" t="s">
+      <c r="G176" t="s">
         <v>279</v>
       </c>
       <c r="H176">
@@ -36629,10 +36654,10 @@
       <c r="E177">
         <v>1</v>
       </c>
-      <c r="F177" s="9" t="s">
+      <c r="F177" t="s">
         <v>1549</v>
       </c>
-      <c r="G177" s="16" t="s">
+      <c r="G177" t="s">
         <v>1685</v>
       </c>
       <c r="H177">
@@ -36661,10 +36686,10 @@
       <c r="E178">
         <v>1</v>
       </c>
-      <c r="F178" s="9" t="s">
+      <c r="F178" t="s">
         <v>1578</v>
       </c>
-      <c r="G178" s="16" t="s">
+      <c r="G178" t="s">
         <v>279</v>
       </c>
       <c r="H178">
@@ -36693,10 +36718,10 @@
       <c r="E179">
         <v>1</v>
       </c>
-      <c r="F179" s="9" t="s">
+      <c r="F179" t="s">
         <v>1579</v>
       </c>
-      <c r="G179" s="16" t="s">
+      <c r="G179" t="s">
         <v>279</v>
       </c>
       <c r="H179">
@@ -36725,10 +36750,10 @@
       <c r="E180">
         <v>1</v>
       </c>
-      <c r="F180" s="9" t="s">
+      <c r="F180" t="s">
         <v>1580</v>
       </c>
-      <c r="G180" s="16" t="s">
+      <c r="G180" t="s">
         <v>279</v>
       </c>
       <c r="H180">
@@ -36757,10 +36782,10 @@
       <c r="E181">
         <v>1</v>
       </c>
-      <c r="F181" s="9" t="s">
+      <c r="F181" t="s">
         <v>1586</v>
       </c>
-      <c r="G181" s="16" t="s">
+      <c r="G181" t="s">
         <v>279</v>
       </c>
       <c r="H181">
@@ -36789,10 +36814,10 @@
       <c r="E182">
         <v>0.85536000000000001</v>
       </c>
-      <c r="F182" s="9" t="s">
+      <c r="F182" t="s">
         <v>1549</v>
       </c>
-      <c r="G182" s="16" t="s">
+      <c r="G182" t="s">
         <v>1686</v>
       </c>
       <c r="H182">
@@ -36821,10 +36846,10 @@
       <c r="E183">
         <v>0.85536000000000001</v>
       </c>
-      <c r="F183" s="9" t="s">
+      <c r="F183" t="s">
         <v>1549</v>
       </c>
-      <c r="G183" s="16" t="s">
+      <c r="G183" t="s">
         <v>1687</v>
       </c>
       <c r="H183">
@@ -36853,10 +36878,10 @@
       <c r="E184">
         <v>0.85536000000000001</v>
       </c>
-      <c r="F184" s="9" t="s">
+      <c r="F184" t="s">
         <v>1549</v>
       </c>
-      <c r="G184" s="16" t="s">
+      <c r="G184" t="s">
         <v>1688</v>
       </c>
       <c r="H184">
@@ -36885,10 +36910,10 @@
       <c r="E185">
         <v>0.85536000000000001</v>
       </c>
-      <c r="F185" s="9" t="s">
+      <c r="F185" t="s">
         <v>1549</v>
       </c>
-      <c r="G185" s="16" t="s">
+      <c r="G185" t="s">
         <v>1689</v>
       </c>
       <c r="H185">
@@ -36917,10 +36942,10 @@
       <c r="E186">
         <v>0.85536000000000001</v>
       </c>
-      <c r="F186" s="9" t="s">
+      <c r="F186" t="s">
         <v>1549</v>
       </c>
-      <c r="G186" s="16" t="s">
+      <c r="G186" t="s">
         <v>1690</v>
       </c>
       <c r="H186">
@@ -36949,10 +36974,10 @@
       <c r="E187">
         <v>0.85536000000000001</v>
       </c>
-      <c r="F187" s="9" t="s">
+      <c r="F187" t="s">
         <v>1549</v>
       </c>
-      <c r="G187" s="16" t="s">
+      <c r="G187" t="s">
         <v>1691</v>
       </c>
       <c r="H187">
@@ -36981,10 +37006,10 @@
       <c r="E188">
         <v>0.85536000000000001</v>
       </c>
-      <c r="F188" s="9" t="s">
+      <c r="F188" t="s">
         <v>1549</v>
       </c>
-      <c r="G188" s="16" t="s">
+      <c r="G188" t="s">
         <v>1692</v>
       </c>
       <c r="H188">
@@ -37013,10 +37038,10 @@
       <c r="E189">
         <v>0.85536000000000001</v>
       </c>
-      <c r="F189" s="9" t="s">
+      <c r="F189" t="s">
         <v>1549</v>
       </c>
-      <c r="G189" s="16" t="s">
+      <c r="G189" t="s">
         <v>1693</v>
       </c>
       <c r="H189">
@@ -37045,10 +37070,10 @@
       <c r="E190">
         <v>0.71230000000000004</v>
       </c>
-      <c r="F190" s="9" t="s">
+      <c r="F190" t="s">
         <v>1549</v>
       </c>
-      <c r="G190" s="16" t="s">
+      <c r="G190" t="s">
         <v>1695</v>
       </c>
       <c r="H190">
@@ -37077,10 +37102,10 @@
       <c r="E191">
         <v>0.71230000000000004</v>
       </c>
-      <c r="F191" s="9" t="s">
+      <c r="F191" t="s">
         <v>1549</v>
       </c>
-      <c r="G191" s="16" t="s">
+      <c r="G191" t="s">
         <v>1694</v>
       </c>
       <c r="H191">
@@ -37109,10 +37134,10 @@
       <c r="E192">
         <v>0.71230000000000004</v>
       </c>
-      <c r="F192" s="9" t="s">
+      <c r="F192" t="s">
         <v>1684</v>
       </c>
-      <c r="G192" s="16" t="s">
+      <c r="G192" t="s">
         <v>1694</v>
       </c>
       <c r="H192">
@@ -37141,10 +37166,10 @@
       <c r="E193">
         <v>0.78335999999999995</v>
       </c>
-      <c r="F193" s="9" t="s">
+      <c r="F193" t="s">
         <v>1549</v>
       </c>
-      <c r="G193" s="16" t="s">
+      <c r="G193" t="s">
         <v>1696</v>
       </c>
       <c r="H193">
@@ -37173,10 +37198,10 @@
       <c r="E194">
         <v>0.78335999999999995</v>
       </c>
-      <c r="F194" s="9" t="s">
+      <c r="F194" t="s">
         <v>1549</v>
       </c>
-      <c r="G194" s="16" t="s">
+      <c r="G194" t="s">
         <v>1697</v>
       </c>
       <c r="H194">
@@ -37205,10 +37230,10 @@
       <c r="E195">
         <v>0.80645999999999995</v>
       </c>
-      <c r="F195" s="9" t="s">
+      <c r="F195" t="s">
         <v>1549</v>
       </c>
-      <c r="G195" s="16" t="s">
+      <c r="G195" t="s">
         <v>1698</v>
       </c>
       <c r="H195">
@@ -37237,10 +37262,10 @@
       <c r="E196">
         <v>0.71601999999999999</v>
       </c>
-      <c r="F196" s="9" t="s">
+      <c r="F196" t="s">
         <v>1549</v>
       </c>
-      <c r="G196" s="16" t="s">
+      <c r="G196" t="s">
         <v>289</v>
       </c>
       <c r="H196">
@@ -37269,10 +37294,10 @@
       <c r="E197">
         <v>0.71601999999999999</v>
       </c>
-      <c r="F197" s="9" t="s">
+      <c r="F197" t="s">
         <v>1549</v>
       </c>
-      <c r="G197" s="16" t="s">
+      <c r="G197" t="s">
         <v>1699</v>
       </c>
       <c r="H197">
@@ -37301,10 +37326,10 @@
       <c r="E198">
         <v>0.67618999999999996</v>
       </c>
-      <c r="F198" s="9" t="s">
+      <c r="F198" t="s">
         <v>1556</v>
       </c>
-      <c r="G198" s="16" t="s">
+      <c r="G198" t="s">
         <v>1700</v>
       </c>
       <c r="H198">
@@ -37333,10 +37358,10 @@
       <c r="E199">
         <v>1</v>
       </c>
-      <c r="F199" s="9" t="s">
+      <c r="F199" t="s">
         <v>1549</v>
       </c>
-      <c r="G199" s="16" t="s">
+      <c r="G199" t="s">
         <v>289</v>
       </c>
       <c r="H199">
@@ -37365,10 +37390,10 @@
       <c r="E200">
         <v>1</v>
       </c>
-      <c r="F200" s="9" t="s">
+      <c r="F200" t="s">
         <v>1549</v>
       </c>
-      <c r="G200" s="16" t="s">
+      <c r="G200" t="s">
         <v>1703</v>
       </c>
       <c r="H200">
@@ -37397,10 +37422,10 @@
       <c r="E201">
         <v>1</v>
       </c>
-      <c r="F201" s="9" t="s">
+      <c r="F201" t="s">
         <v>1549</v>
       </c>
-      <c r="G201" s="16" t="s">
+      <c r="G201" t="s">
         <v>1704</v>
       </c>
       <c r="H201">
@@ -37429,10 +37454,10 @@
       <c r="E202">
         <v>1</v>
       </c>
-      <c r="F202" s="9" t="s">
+      <c r="F202" t="s">
         <v>1549</v>
       </c>
-      <c r="G202" s="16" t="s">
+      <c r="G202" t="s">
         <v>1701</v>
       </c>
       <c r="H202">
@@ -37461,10 +37486,10 @@
       <c r="E203">
         <v>1</v>
       </c>
-      <c r="F203" s="9" t="s">
+      <c r="F203" t="s">
         <v>1549</v>
       </c>
-      <c r="G203" s="16" t="s">
+      <c r="G203" t="s">
         <v>1702</v>
       </c>
       <c r="H203">
@@ -37493,10 +37518,10 @@
       <c r="E204">
         <v>0.99944</v>
       </c>
-      <c r="F204" s="9" t="s">
+      <c r="F204" t="s">
         <v>1549</v>
       </c>
-      <c r="G204" s="16" t="s">
+      <c r="G204" t="s">
         <v>289</v>
       </c>
       <c r="H204">
@@ -37525,10 +37550,10 @@
       <c r="E205">
         <v>0.99944</v>
       </c>
-      <c r="F205" s="9" t="s">
+      <c r="F205" t="s">
         <v>1549</v>
       </c>
-      <c r="G205" s="16" t="s">
+      <c r="G205" t="s">
         <v>1705</v>
       </c>
       <c r="H205">
@@ -37557,10 +37582,10 @@
       <c r="E206">
         <v>0.99944</v>
       </c>
-      <c r="F206" s="9" t="s">
+      <c r="F206" t="s">
         <v>1549</v>
       </c>
-      <c r="G206" s="16" t="s">
+      <c r="G206" t="s">
         <v>1701</v>
       </c>
       <c r="H206">
@@ -37589,10 +37614,10 @@
       <c r="E207">
         <v>0.99944</v>
       </c>
-      <c r="F207" s="9" t="s">
+      <c r="F207" t="s">
         <v>1549</v>
       </c>
-      <c r="G207" s="16" t="s">
+      <c r="G207" t="s">
         <v>1706</v>
       </c>
       <c r="H207">
@@ -37621,10 +37646,10 @@
       <c r="E208">
         <v>0.99944</v>
       </c>
-      <c r="F208" s="9" t="s">
+      <c r="F208" t="s">
         <v>1549</v>
       </c>
-      <c r="G208" s="16" t="s">
+      <c r="G208" t="s">
         <v>1702</v>
       </c>
       <c r="H208">
@@ -37653,10 +37678,10 @@
       <c r="E209">
         <v>0.99944</v>
       </c>
-      <c r="F209" s="9" t="s">
+      <c r="F209" t="s">
         <v>1549</v>
       </c>
-      <c r="G209" s="16" t="s">
+      <c r="G209" t="s">
         <v>1707</v>
       </c>
       <c r="H209">
@@ -37685,10 +37710,10 @@
       <c r="E210">
         <v>0.63602999999999998</v>
       </c>
-      <c r="F210" s="9" t="s">
+      <c r="F210" t="s">
         <v>1568</v>
       </c>
-      <c r="G210" s="16" t="s">
+      <c r="G210" t="s">
         <v>1708</v>
       </c>
       <c r="H210">
@@ -37717,10 +37742,10 @@
       <c r="E211">
         <v>0.63602999999999998</v>
       </c>
-      <c r="F211" s="9" t="s">
+      <c r="F211" t="s">
         <v>1582</v>
       </c>
-      <c r="G211" s="16" t="s">
+      <c r="G211" t="s">
         <v>1708</v>
       </c>
       <c r="H211">
@@ -37749,10 +37774,10 @@
       <c r="E212">
         <v>1</v>
       </c>
-      <c r="F212" s="9" t="s">
+      <c r="F212" t="s">
         <v>1549</v>
       </c>
-      <c r="G212" s="16" t="s">
+      <c r="G212" t="s">
         <v>307</v>
       </c>
       <c r="H212">
@@ -37781,10 +37806,10 @@
       <c r="E213">
         <v>1</v>
       </c>
-      <c r="F213" s="9" t="s">
+      <c r="F213" t="s">
         <v>1549</v>
       </c>
-      <c r="G213" s="16" t="s">
+      <c r="G213" t="s">
         <v>723</v>
       </c>
       <c r="H213">
@@ -37813,10 +37838,10 @@
       <c r="E214">
         <v>1</v>
       </c>
-      <c r="F214" s="9" t="s">
+      <c r="F214" t="s">
         <v>1549</v>
       </c>
-      <c r="G214" s="16" t="s">
+      <c r="G214" t="s">
         <v>1710</v>
       </c>
       <c r="H214">
@@ -37845,10 +37870,10 @@
       <c r="E215">
         <v>0.98695999999999995</v>
       </c>
-      <c r="F215" s="9" t="s">
+      <c r="F215" t="s">
         <v>1549</v>
       </c>
-      <c r="G215" s="16" t="s">
+      <c r="G215" t="s">
         <v>1711</v>
       </c>
       <c r="H215">
@@ -37877,10 +37902,10 @@
       <c r="E216">
         <v>0.98695999999999995</v>
       </c>
-      <c r="F216" s="9" t="s">
+      <c r="F216" t="s">
         <v>1549</v>
       </c>
-      <c r="G216" s="16" t="s">
+      <c r="G216" t="s">
         <v>1712</v>
       </c>
       <c r="H216">
@@ -37909,10 +37934,10 @@
       <c r="E217">
         <v>0.98695999999999995</v>
       </c>
-      <c r="F217" s="9" t="s">
+      <c r="F217" t="s">
         <v>1586</v>
       </c>
-      <c r="G217" s="16" t="s">
+      <c r="G217" t="s">
         <v>1713</v>
       </c>
       <c r="H217">
@@ -37941,10 +37966,10 @@
       <c r="E218">
         <v>0.98695999999999995</v>
       </c>
-      <c r="F218" s="9" t="s">
+      <c r="F218" t="s">
         <v>1586</v>
       </c>
-      <c r="G218" s="16" t="s">
+      <c r="G218" t="s">
         <v>10</v>
       </c>
       <c r="H218">
@@ -37973,10 +37998,10 @@
       <c r="E219">
         <v>0.54557999999999995</v>
       </c>
-      <c r="F219" s="9" t="s">
+      <c r="F219" t="s">
         <v>1549</v>
       </c>
-      <c r="G219" s="16" t="s">
+      <c r="G219" t="s">
         <v>1714</v>
       </c>
       <c r="H219">
@@ -38005,10 +38030,10 @@
       <c r="E220">
         <v>0.54557999999999995</v>
       </c>
-      <c r="F220" s="9" t="s">
+      <c r="F220" t="s">
         <v>1549</v>
       </c>
-      <c r="G220" s="16" t="s">
+      <c r="G220" t="s">
         <v>1713</v>
       </c>
       <c r="H220">
@@ -38037,10 +38062,10 @@
       <c r="E221">
         <v>0.54557999999999995</v>
       </c>
-      <c r="F221" s="9" t="s">
+      <c r="F221" t="s">
         <v>1549</v>
       </c>
-      <c r="G221" s="16" t="s">
+      <c r="G221" t="s">
         <v>1715</v>
       </c>
       <c r="H221">
@@ -38069,10 +38094,10 @@
       <c r="E222">
         <v>0.54557999999999995</v>
       </c>
-      <c r="F222" s="9" t="s">
+      <c r="F222" t="s">
         <v>1549</v>
       </c>
-      <c r="G222" s="16" t="s">
+      <c r="G222" t="s">
         <v>1716</v>
       </c>
       <c r="H222">
@@ -38101,10 +38126,10 @@
       <c r="E223">
         <v>0.54557999999999995</v>
       </c>
-      <c r="F223" s="9" t="s">
+      <c r="F223" t="s">
         <v>1549</v>
       </c>
-      <c r="G223" s="16" t="s">
+      <c r="G223" t="s">
         <v>1717</v>
       </c>
       <c r="H223">
@@ -38133,10 +38158,10 @@
       <c r="E224">
         <v>0.54557999999999995</v>
       </c>
-      <c r="F224" s="9" t="s">
+      <c r="F224" t="s">
         <v>1549</v>
       </c>
-      <c r="G224" s="16" t="s">
+      <c r="G224" t="s">
         <v>1718</v>
       </c>
       <c r="H224">
@@ -38165,10 +38190,10 @@
       <c r="E225">
         <v>0.54557999999999995</v>
       </c>
-      <c r="F225" s="9" t="s">
+      <c r="F225" t="s">
         <v>1549</v>
       </c>
-      <c r="G225" s="16" t="s">
+      <c r="G225" t="s">
         <v>1719</v>
       </c>
       <c r="H225">
@@ -38197,10 +38222,10 @@
       <c r="E226">
         <v>0.54557999999999995</v>
       </c>
-      <c r="F226" s="9" t="s">
+      <c r="F226" t="s">
         <v>1549</v>
       </c>
-      <c r="G226" s="16" t="s">
+      <c r="G226" t="s">
         <v>1720</v>
       </c>
       <c r="H226">
@@ -38229,10 +38254,10 @@
       <c r="E227">
         <v>0.54557999999999995</v>
       </c>
-      <c r="F227" s="9" t="s">
+      <c r="F227" t="s">
         <v>1549</v>
       </c>
-      <c r="G227" s="16" t="s">
+      <c r="G227" t="s">
         <v>1721</v>
       </c>
       <c r="H227">
@@ -38261,10 +38286,10 @@
       <c r="E228">
         <v>0.54557999999999995</v>
       </c>
-      <c r="F228" s="9" t="s">
+      <c r="F228" t="s">
         <v>1549</v>
       </c>
-      <c r="G228" s="16" t="s">
+      <c r="G228" t="s">
         <v>1722</v>
       </c>
       <c r="H228">
@@ -38293,10 +38318,10 @@
       <c r="E229">
         <v>0.99878999999999996</v>
       </c>
-      <c r="F229" s="9" t="s">
+      <c r="F229" t="s">
         <v>1549</v>
       </c>
-      <c r="G229" s="16" t="s">
+      <c r="G229" t="s">
         <v>1718</v>
       </c>
       <c r="H229">
@@ -38325,10 +38350,10 @@
       <c r="E230">
         <v>0.99878999999999996</v>
       </c>
-      <c r="F230" s="9" t="s">
+      <c r="F230" t="s">
         <v>1549</v>
       </c>
-      <c r="G230" s="16" t="s">
+      <c r="G230" t="s">
         <v>1712</v>
       </c>
       <c r="H230">
@@ -38357,10 +38382,10 @@
       <c r="E231">
         <v>0.99878999999999996</v>
       </c>
-      <c r="F231" s="9" t="s">
+      <c r="F231" t="s">
         <v>1549</v>
       </c>
-      <c r="G231" s="16" t="s">
+      <c r="G231" t="s">
         <v>1723</v>
       </c>
       <c r="H231">
@@ -38389,10 +38414,10 @@
       <c r="E232">
         <v>0.99878999999999996</v>
       </c>
-      <c r="F232" s="9" t="s">
+      <c r="F232" t="s">
         <v>1549</v>
       </c>
-      <c r="G232" s="16" t="s">
+      <c r="G232" t="s">
         <v>1724</v>
       </c>
       <c r="H232">
@@ -38421,10 +38446,10 @@
       <c r="E233">
         <v>1</v>
       </c>
-      <c r="F233" s="9" t="s">
+      <c r="F233" t="s">
         <v>1568</v>
       </c>
-      <c r="G233" s="16" t="s">
+      <c r="G233" t="s">
         <v>10</v>
       </c>
       <c r="H233">
@@ -38453,10 +38478,10 @@
       <c r="E234">
         <v>1</v>
       </c>
-      <c r="F234" s="9" t="s">
+      <c r="F234" t="s">
         <v>1573</v>
       </c>
-      <c r="G234" s="16" t="s">
+      <c r="G234" t="s">
         <v>10</v>
       </c>
       <c r="H234">
@@ -38485,10 +38510,10 @@
       <c r="E235">
         <v>1</v>
       </c>
-      <c r="F235" s="9" t="s">
+      <c r="F235" t="s">
         <v>1561</v>
       </c>
-      <c r="G235" s="16" t="s">
+      <c r="G235" t="s">
         <v>10</v>
       </c>
       <c r="H235">
@@ -38517,10 +38542,10 @@
       <c r="E236">
         <v>1</v>
       </c>
-      <c r="F236" s="9" t="s">
+      <c r="F236" t="s">
         <v>1561</v>
       </c>
-      <c r="G236" s="16" t="s">
+      <c r="G236" t="s">
         <v>1721</v>
       </c>
       <c r="H236">
@@ -38549,10 +38574,10 @@
       <c r="E237">
         <v>1</v>
       </c>
-      <c r="F237" s="9" t="s">
+      <c r="F237" t="s">
         <v>1561</v>
       </c>
-      <c r="G237" s="16" t="s">
+      <c r="G237" t="s">
         <v>1725</v>
       </c>
       <c r="H237">
@@ -38581,10 +38606,10 @@
       <c r="E238">
         <v>1</v>
       </c>
-      <c r="F238" s="9" t="s">
+      <c r="F238" t="s">
         <v>1554</v>
       </c>
-      <c r="G238" s="16" t="s">
+      <c r="G238" t="s">
         <v>10</v>
       </c>
       <c r="H238">
@@ -38613,10 +38638,10 @@
       <c r="E239">
         <v>1</v>
       </c>
-      <c r="F239" s="9" t="s">
+      <c r="F239" t="s">
         <v>1554</v>
       </c>
-      <c r="G239" s="16" t="s">
+      <c r="G239" t="s">
         <v>1721</v>
       </c>
       <c r="H239">
@@ -38645,10 +38670,10 @@
       <c r="E240">
         <v>1</v>
       </c>
-      <c r="F240" s="9" t="s">
+      <c r="F240" t="s">
         <v>1554</v>
       </c>
-      <c r="G240" s="16" t="s">
+      <c r="G240" t="s">
         <v>1725</v>
       </c>
       <c r="H240">
@@ -38677,10 +38702,10 @@
       <c r="E241">
         <v>1</v>
       </c>
-      <c r="F241" s="9" t="s">
+      <c r="F241" t="s">
         <v>1603</v>
       </c>
-      <c r="G241" s="16" t="s">
+      <c r="G241" t="s">
         <v>10</v>
       </c>
       <c r="H241">
@@ -38709,10 +38734,10 @@
       <c r="E242">
         <v>1</v>
       </c>
-      <c r="F242" s="9" t="s">
+      <c r="F242" t="s">
         <v>1577</v>
       </c>
-      <c r="G242" s="16" t="s">
+      <c r="G242" t="s">
         <v>10</v>
       </c>
       <c r="H242">
@@ -38741,10 +38766,10 @@
       <c r="E243">
         <v>1</v>
       </c>
-      <c r="F243" s="9" t="s">
+      <c r="F243" t="s">
         <v>1577</v>
       </c>
-      <c r="G243" s="16" t="s">
+      <c r="G243" t="s">
         <v>1725</v>
       </c>
       <c r="H243">
@@ -38773,10 +38798,10 @@
       <c r="E244">
         <v>1</v>
       </c>
-      <c r="F244" s="9" t="s">
+      <c r="F244" t="s">
         <v>1580</v>
       </c>
-      <c r="G244" s="16" t="s">
+      <c r="G244" t="s">
         <v>10</v>
       </c>
       <c r="H244">
@@ -38805,10 +38830,10 @@
       <c r="E245">
         <v>1</v>
       </c>
-      <c r="F245" s="9" t="s">
+      <c r="F245" t="s">
         <v>1581</v>
       </c>
-      <c r="G245" s="16" t="s">
+      <c r="G245" t="s">
         <v>10</v>
       </c>
       <c r="H245">
@@ -38837,10 +38862,10 @@
       <c r="E246">
         <v>1</v>
       </c>
-      <c r="F246" s="9" t="s">
+      <c r="F246" t="s">
         <v>1582</v>
       </c>
-      <c r="G246" s="16" t="s">
+      <c r="G246" t="s">
         <v>10</v>
       </c>
       <c r="H246">
@@ -38869,10 +38894,10 @@
       <c r="E247">
         <v>1</v>
       </c>
-      <c r="F247" s="9" t="s">
+      <c r="F247" t="s">
         <v>1650</v>
       </c>
-      <c r="G247" s="16" t="s">
+      <c r="G247" t="s">
         <v>10</v>
       </c>
       <c r="H247">
@@ -38901,10 +38926,10 @@
       <c r="E248">
         <v>1</v>
       </c>
-      <c r="F248" s="9" t="s">
+      <c r="F248" t="s">
         <v>1626</v>
       </c>
-      <c r="G248" s="16" t="s">
+      <c r="G248" t="s">
         <v>10</v>
       </c>
       <c r="H248">
@@ -38933,10 +38958,10 @@
       <c r="E249">
         <v>0.98409999999999997</v>
       </c>
-      <c r="F249" s="9" t="s">
+      <c r="F249" t="s">
         <v>1549</v>
       </c>
-      <c r="G249" s="16" t="s">
+      <c r="G249" t="s">
         <v>1726</v>
       </c>
       <c r="H249">
@@ -38965,10 +38990,10 @@
       <c r="E250">
         <v>0.98409999999999997</v>
       </c>
-      <c r="F250" s="9" t="s">
+      <c r="F250" t="s">
         <v>1549</v>
       </c>
-      <c r="G250" s="16" t="s">
+      <c r="G250" t="s">
         <v>1727</v>
       </c>
       <c r="H250">
@@ -38997,10 +39022,10 @@
       <c r="E251">
         <v>0.54708000000000001</v>
       </c>
-      <c r="F251" s="9" t="s">
+      <c r="F251" t="s">
         <v>1549</v>
       </c>
-      <c r="G251" s="16" t="s">
+      <c r="G251" t="s">
         <v>1728</v>
       </c>
       <c r="H251">
@@ -39029,10 +39054,10 @@
       <c r="E252">
         <v>0.50268000000000002</v>
       </c>
-      <c r="F252" s="9" t="s">
+      <c r="F252" t="s">
         <v>1549</v>
       </c>
-      <c r="G252" s="16" t="s">
+      <c r="G252" t="s">
         <v>1729</v>
       </c>
       <c r="H252">
@@ -39061,10 +39086,10 @@
       <c r="E253">
         <v>0.50268000000000002</v>
       </c>
-      <c r="F253" s="9" t="s">
+      <c r="F253" t="s">
         <v>1549</v>
       </c>
-      <c r="G253" s="16" t="s">
+      <c r="G253" t="s">
         <v>1730</v>
       </c>
       <c r="H253">
@@ -39093,10 +39118,10 @@
       <c r="E254">
         <v>0.50268000000000002</v>
       </c>
-      <c r="F254" s="9" t="s">
+      <c r="F254" t="s">
         <v>1549</v>
       </c>
-      <c r="G254" s="16" t="s">
+      <c r="G254" t="s">
         <v>1731</v>
       </c>
       <c r="H254">
@@ -39125,10 +39150,10 @@
       <c r="E255">
         <v>0.50268000000000002</v>
       </c>
-      <c r="F255" s="9" t="s">
+      <c r="F255" t="s">
         <v>1549</v>
       </c>
-      <c r="G255" s="16" t="s">
+      <c r="G255" t="s">
         <v>1732</v>
       </c>
       <c r="H255">
@@ -39157,10 +39182,10 @@
       <c r="E256">
         <v>0.73555000000000004</v>
       </c>
-      <c r="F256" s="9" t="s">
+      <c r="F256" t="s">
         <v>1549</v>
       </c>
-      <c r="G256" s="16" t="s">
+      <c r="G256" t="s">
         <v>1733</v>
       </c>
       <c r="H256">
@@ -39189,10 +39214,10 @@
       <c r="E257">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F257" s="9" t="s">
+      <c r="F257" t="s">
         <v>1549</v>
       </c>
-      <c r="G257" s="16" t="s">
+      <c r="G257" t="s">
         <v>1734</v>
       </c>
       <c r="H257">
@@ -39221,10 +39246,10 @@
       <c r="E258">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F258" s="9" t="s">
+      <c r="F258" t="s">
         <v>1549</v>
       </c>
-      <c r="G258" s="16" t="s">
+      <c r="G258" t="s">
         <v>30</v>
       </c>
       <c r="H258">
@@ -39253,10 +39278,10 @@
       <c r="E259">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F259" s="9" t="s">
+      <c r="F259" t="s">
         <v>1549</v>
       </c>
-      <c r="G259" s="16" t="s">
+      <c r="G259" t="s">
         <v>1735</v>
       </c>
       <c r="H259">
@@ -39285,10 +39310,10 @@
       <c r="E260">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F260" s="9" t="s">
+      <c r="F260" t="s">
         <v>1549</v>
       </c>
-      <c r="G260" s="16" t="s">
+      <c r="G260" t="s">
         <v>1736</v>
       </c>
       <c r="H260">
@@ -39317,10 +39342,10 @@
       <c r="E261">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F261" s="9" t="s">
+      <c r="F261" t="s">
         <v>1549</v>
       </c>
-      <c r="G261" s="16" t="s">
+      <c r="G261" t="s">
         <v>1737</v>
       </c>
       <c r="H261">
@@ -39349,10 +39374,10 @@
       <c r="E262">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F262" s="9" t="s">
+      <c r="F262" t="s">
         <v>1549</v>
       </c>
-      <c r="G262" s="16" t="s">
+      <c r="G262" t="s">
         <v>1738</v>
       </c>
       <c r="H262">
@@ -39381,10 +39406,10 @@
       <c r="E263">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F263" s="9" t="s">
+      <c r="F263" t="s">
         <v>1549</v>
       </c>
-      <c r="G263" s="16" t="s">
+      <c r="G263" t="s">
         <v>1739</v>
       </c>
       <c r="H263">
@@ -39413,10 +39438,10 @@
       <c r="E264">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F264" s="9" t="s">
+      <c r="F264" t="s">
         <v>1549</v>
       </c>
-      <c r="G264" s="16" t="s">
+      <c r="G264" t="s">
         <v>1740</v>
       </c>
       <c r="H264">
@@ -39445,10 +39470,10 @@
       <c r="E265">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F265" s="9" t="s">
+      <c r="F265" t="s">
         <v>1549</v>
       </c>
-      <c r="G265" s="16" t="s">
+      <c r="G265" t="s">
         <v>1741</v>
       </c>
       <c r="H265">
@@ -39477,10 +39502,10 @@
       <c r="E266">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F266" s="9" t="s">
+      <c r="F266" t="s">
         <v>1549</v>
       </c>
-      <c r="G266" s="16" t="s">
+      <c r="G266" t="s">
         <v>1742</v>
       </c>
       <c r="H266">
@@ -39509,10 +39534,10 @@
       <c r="E267">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F267" s="9" t="s">
+      <c r="F267" t="s">
         <v>1549</v>
       </c>
-      <c r="G267" s="16" t="s">
+      <c r="G267" t="s">
         <v>1743</v>
       </c>
       <c r="H267">
@@ -39541,10 +39566,10 @@
       <c r="E268">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F268" s="9" t="s">
+      <c r="F268" t="s">
         <v>1568</v>
       </c>
-      <c r="G268" s="16" t="s">
+      <c r="G268" t="s">
         <v>30</v>
       </c>
       <c r="H268">
@@ -39573,10 +39598,10 @@
       <c r="E269">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F269" s="9" t="s">
+      <c r="F269" t="s">
         <v>1568</v>
       </c>
-      <c r="G269" s="16" t="s">
+      <c r="G269" t="s">
         <v>1744</v>
       </c>
       <c r="H269">
@@ -39605,10 +39630,10 @@
       <c r="E270">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F270" s="9" t="s">
+      <c r="F270" t="s">
         <v>1570</v>
       </c>
-      <c r="G270" s="16" t="s">
+      <c r="G270" t="s">
         <v>30</v>
       </c>
       <c r="H270">
@@ -39637,10 +39662,10 @@
       <c r="E271">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F271" s="9" t="s">
+      <c r="F271" t="s">
         <v>1596</v>
       </c>
-      <c r="G271" s="16" t="s">
+      <c r="G271" t="s">
         <v>1745</v>
       </c>
       <c r="H271">
@@ -39669,10 +39694,10 @@
       <c r="E272">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F272" s="9" t="s">
+      <c r="F272" t="s">
         <v>1572</v>
       </c>
-      <c r="G272" s="16" t="s">
+      <c r="G272" t="s">
         <v>1745</v>
       </c>
       <c r="H272">
@@ -39701,10 +39726,10 @@
       <c r="E273">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F273" s="9" t="s">
+      <c r="F273" t="s">
         <v>1573</v>
       </c>
-      <c r="G273" s="16" t="s">
+      <c r="G273" t="s">
         <v>1746</v>
       </c>
       <c r="H273">
@@ -39733,10 +39758,10 @@
       <c r="E274">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F274" s="9" t="s">
+      <c r="F274" t="s">
         <v>1573</v>
       </c>
-      <c r="G274" s="16" t="s">
+      <c r="G274" t="s">
         <v>1745</v>
       </c>
       <c r="H274">
@@ -39765,10 +39790,10 @@
       <c r="E275">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F275" s="9" t="s">
+      <c r="F275" t="s">
         <v>1747</v>
       </c>
-      <c r="G275" s="16" t="s">
+      <c r="G275" t="s">
         <v>30</v>
       </c>
       <c r="H275">
@@ -39797,10 +39822,10 @@
       <c r="E276">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F276" s="9" t="s">
+      <c r="F276" t="s">
         <v>1747</v>
       </c>
-      <c r="G276" s="16" t="s">
+      <c r="G276" t="s">
         <v>1745</v>
       </c>
       <c r="H276">
@@ -39829,10 +39854,10 @@
       <c r="E277">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F277" s="9" t="s">
+      <c r="F277" t="s">
         <v>1622</v>
       </c>
-      <c r="G277" s="16" t="s">
+      <c r="G277" t="s">
         <v>30</v>
       </c>
       <c r="H277">
@@ -39861,10 +39886,10 @@
       <c r="E278">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F278" s="9" t="s">
+      <c r="F278" t="s">
         <v>1622</v>
       </c>
-      <c r="G278" s="16" t="s">
+      <c r="G278" t="s">
         <v>1745</v>
       </c>
       <c r="H278">
@@ -39893,10 +39918,10 @@
       <c r="E279">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F279" s="9" t="s">
+      <c r="F279" t="s">
         <v>1557</v>
       </c>
-      <c r="G279" s="16" t="s">
+      <c r="G279" t="s">
         <v>30</v>
       </c>
       <c r="H279">
@@ -39925,10 +39950,10 @@
       <c r="E280">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F280" s="9" t="s">
+      <c r="F280" t="s">
         <v>1557</v>
       </c>
-      <c r="G280" s="16" t="s">
+      <c r="G280" t="s">
         <v>1745</v>
       </c>
       <c r="H280">
@@ -39957,10 +39982,10 @@
       <c r="E281">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F281" s="9" t="s">
+      <c r="F281" t="s">
         <v>1561</v>
       </c>
-      <c r="G281" s="16" t="s">
+      <c r="G281" t="s">
         <v>1745</v>
       </c>
       <c r="H281">
@@ -39989,10 +40014,10 @@
       <c r="E282">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F282" s="9" t="s">
+      <c r="F282" t="s">
         <v>1561</v>
       </c>
-      <c r="G282" s="16" t="s">
+      <c r="G282" t="s">
         <v>1748</v>
       </c>
       <c r="H282">
@@ -40021,10 +40046,10 @@
       <c r="E283">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F283" s="9" t="s">
+      <c r="F283" t="s">
         <v>1623</v>
       </c>
-      <c r="G283" s="16" t="s">
+      <c r="G283" t="s">
         <v>30</v>
       </c>
       <c r="H283">
@@ -40053,10 +40078,10 @@
       <c r="E284">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F284" s="9" t="s">
+      <c r="F284" t="s">
         <v>1619</v>
       </c>
-      <c r="G284" s="16" t="s">
+      <c r="G284" t="s">
         <v>1745</v>
       </c>
       <c r="H284">
@@ -40085,10 +40110,10 @@
       <c r="E285">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F285" s="9" t="s">
+      <c r="F285" t="s">
         <v>1633</v>
       </c>
-      <c r="G285" s="16" t="s">
+      <c r="G285" t="s">
         <v>30</v>
       </c>
       <c r="H285">
@@ -40117,10 +40142,10 @@
       <c r="E286">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F286" s="9" t="s">
+      <c r="F286" t="s">
         <v>1709</v>
       </c>
-      <c r="G286" s="16" t="s">
+      <c r="G286" t="s">
         <v>30</v>
       </c>
       <c r="H286">
@@ -40149,10 +40174,10 @@
       <c r="E287">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F287" s="9" t="s">
+      <c r="F287" t="s">
         <v>1620</v>
       </c>
-      <c r="G287" s="16" t="s">
+      <c r="G287" t="s">
         <v>30</v>
       </c>
       <c r="H287">
@@ -40181,10 +40206,10 @@
       <c r="E288">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F288" s="9" t="s">
+      <c r="F288" t="s">
         <v>1620</v>
       </c>
-      <c r="G288" s="16" t="s">
+      <c r="G288" t="s">
         <v>1745</v>
       </c>
       <c r="H288">
@@ -40213,10 +40238,10 @@
       <c r="E289">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F289" s="9" t="s">
+      <c r="F289" t="s">
         <v>1563</v>
       </c>
-      <c r="G289" s="16" t="s">
+      <c r="G289" t="s">
         <v>30</v>
       </c>
       <c r="H289">
@@ -40245,10 +40270,10 @@
       <c r="E290">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F290" s="9" t="s">
+      <c r="F290" t="s">
         <v>1563</v>
       </c>
-      <c r="G290" s="16" t="s">
+      <c r="G290" t="s">
         <v>1745</v>
       </c>
       <c r="H290">
@@ -40277,10 +40302,10 @@
       <c r="E291">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F291" s="9" t="s">
+      <c r="F291" t="s">
         <v>1624</v>
       </c>
-      <c r="G291" s="16" t="s">
+      <c r="G291" t="s">
         <v>30</v>
       </c>
       <c r="H291">
@@ -40309,10 +40334,10 @@
       <c r="E292">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F292" s="9" t="s">
+      <c r="F292" t="s">
         <v>1625</v>
       </c>
-      <c r="G292" s="16" t="s">
+      <c r="G292" t="s">
         <v>30</v>
       </c>
       <c r="H292">
@@ -40341,10 +40366,10 @@
       <c r="E293">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F293" s="9" t="s">
+      <c r="F293" t="s">
         <v>1559</v>
       </c>
-      <c r="G293" s="16" t="s">
+      <c r="G293" t="s">
         <v>30</v>
       </c>
       <c r="H293">
@@ -40373,10 +40398,10 @@
       <c r="E294">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F294" s="9" t="s">
+      <c r="F294" t="s">
         <v>1559</v>
       </c>
-      <c r="G294" s="16" t="s">
+      <c r="G294" t="s">
         <v>1745</v>
       </c>
       <c r="H294">
@@ -40405,10 +40430,10 @@
       <c r="E295">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F295" s="9" t="s">
+      <c r="F295" t="s">
         <v>1598</v>
       </c>
-      <c r="G295" s="16" t="s">
+      <c r="G295" t="s">
         <v>1745</v>
       </c>
       <c r="H295">
@@ -40437,10 +40462,10 @@
       <c r="E296">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F296" s="9" t="s">
+      <c r="F296" t="s">
         <v>1603</v>
       </c>
-      <c r="G296" s="16" t="s">
+      <c r="G296" t="s">
         <v>1745</v>
       </c>
       <c r="H296">
@@ -40469,10 +40494,10 @@
       <c r="E297">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F297" s="9" t="s">
+      <c r="F297" t="s">
         <v>1575</v>
       </c>
-      <c r="G297" s="16" t="s">
+      <c r="G297" t="s">
         <v>1745</v>
       </c>
       <c r="H297">
@@ -40501,10 +40526,10 @@
       <c r="E298">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F298" s="9" t="s">
+      <c r="F298" t="s">
         <v>1576</v>
       </c>
-      <c r="G298" s="16" t="s">
+      <c r="G298" t="s">
         <v>30</v>
       </c>
       <c r="H298">
@@ -40533,10 +40558,10 @@
       <c r="E299">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F299" s="9" t="s">
+      <c r="F299" t="s">
         <v>1576</v>
       </c>
-      <c r="G299" s="16" t="s">
+      <c r="G299" t="s">
         <v>1745</v>
       </c>
       <c r="H299">
@@ -40565,10 +40590,10 @@
       <c r="E300">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F300" s="9" t="s">
+      <c r="F300" t="s">
         <v>1555</v>
       </c>
-      <c r="G300" s="16" t="s">
+      <c r="G300" t="s">
         <v>30</v>
       </c>
       <c r="H300">
@@ -40597,10 +40622,10 @@
       <c r="E301">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F301" s="9" t="s">
+      <c r="F301" t="s">
         <v>1577</v>
       </c>
-      <c r="G301" s="16" t="s">
+      <c r="G301" t="s">
         <v>1745</v>
       </c>
       <c r="H301">
@@ -40629,10 +40654,10 @@
       <c r="E302">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F302" s="9" t="s">
+      <c r="F302" t="s">
         <v>1579</v>
       </c>
-      <c r="G302" s="16" t="s">
+      <c r="G302" t="s">
         <v>30</v>
       </c>
       <c r="H302">
@@ -40661,10 +40686,10 @@
       <c r="E303">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F303" s="9" t="s">
+      <c r="F303" t="s">
         <v>1580</v>
       </c>
-      <c r="G303" s="16" t="s">
+      <c r="G303" t="s">
         <v>30</v>
       </c>
       <c r="H303">
@@ -40693,10 +40718,10 @@
       <c r="E304">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F304" s="9" t="s">
+      <c r="F304" t="s">
         <v>1581</v>
       </c>
-      <c r="G304" s="16" t="s">
+      <c r="G304" t="s">
         <v>30</v>
       </c>
       <c r="H304">
@@ -40725,10 +40750,10 @@
       <c r="E305">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F305" s="9" t="s">
+      <c r="F305" t="s">
         <v>1581</v>
       </c>
-      <c r="G305" s="16" t="s">
+      <c r="G305" t="s">
         <v>1744</v>
       </c>
       <c r="H305">
@@ -40757,10 +40782,10 @@
       <c r="E306">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F306" s="9" t="s">
+      <c r="F306" t="s">
         <v>1581</v>
       </c>
-      <c r="G306" s="16" t="s">
+      <c r="G306" t="s">
         <v>1745</v>
       </c>
       <c r="H306">
@@ -40789,10 +40814,10 @@
       <c r="E307">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F307" s="9" t="s">
+      <c r="F307" t="s">
         <v>1582</v>
       </c>
-      <c r="G307" s="16" t="s">
+      <c r="G307" t="s">
         <v>30</v>
       </c>
       <c r="H307">
@@ -40821,10 +40846,10 @@
       <c r="E308">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F308" s="9" t="s">
+      <c r="F308" t="s">
         <v>1582</v>
       </c>
-      <c r="G308" s="16" t="s">
+      <c r="G308" t="s">
         <v>1744</v>
       </c>
       <c r="H308">
@@ -40853,10 +40878,10 @@
       <c r="E309">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F309" s="9" t="s">
+      <c r="F309" t="s">
         <v>1582</v>
       </c>
-      <c r="G309" s="16" t="s">
+      <c r="G309" t="s">
         <v>1745</v>
       </c>
       <c r="H309">
@@ -40885,10 +40910,10 @@
       <c r="E310">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F310" s="9" t="s">
+      <c r="F310" t="s">
         <v>1604</v>
       </c>
-      <c r="G310" s="16" t="s">
+      <c r="G310" t="s">
         <v>1745</v>
       </c>
       <c r="H310">
@@ -40917,10 +40942,10 @@
       <c r="E311">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F311" s="9" t="s">
+      <c r="F311" t="s">
         <v>1650</v>
       </c>
-      <c r="G311" s="16" t="s">
+      <c r="G311" t="s">
         <v>30</v>
       </c>
       <c r="H311">
@@ -40949,10 +40974,10 @@
       <c r="E312">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F312" s="9" t="s">
+      <c r="F312" t="s">
         <v>1650</v>
       </c>
-      <c r="G312" s="16" t="s">
+      <c r="G312" t="s">
         <v>1745</v>
       </c>
       <c r="H312">
@@ -40981,10 +41006,10 @@
       <c r="E313">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F313" s="9" t="s">
+      <c r="F313" t="s">
         <v>1556</v>
       </c>
-      <c r="G313" s="16" t="s">
+      <c r="G313" t="s">
         <v>30</v>
       </c>
       <c r="H313">
@@ -41013,10 +41038,10 @@
       <c r="E314">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F314" s="9" t="s">
+      <c r="F314" t="s">
         <v>1564</v>
       </c>
-      <c r="G314" s="16" t="s">
+      <c r="G314" t="s">
         <v>30</v>
       </c>
       <c r="H314">
@@ -41045,10 +41070,10 @@
       <c r="E315">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F315" s="9" t="s">
+      <c r="F315" t="s">
         <v>1564</v>
       </c>
-      <c r="G315" s="16" t="s">
+      <c r="G315" t="s">
         <v>1744</v>
       </c>
       <c r="H315">
@@ -41077,10 +41102,10 @@
       <c r="E316">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F316" s="9" t="s">
+      <c r="F316" t="s">
         <v>1670</v>
       </c>
-      <c r="G316" s="16" t="s">
+      <c r="G316" t="s">
         <v>30</v>
       </c>
       <c r="H316">
@@ -41109,10 +41134,10 @@
       <c r="E317">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F317" s="9" t="s">
+      <c r="F317" t="s">
         <v>1565</v>
       </c>
-      <c r="G317" s="16" t="s">
+      <c r="G317" t="s">
         <v>30</v>
       </c>
       <c r="H317">
@@ -41141,10 +41166,10 @@
       <c r="E318">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F318" s="9" t="s">
+      <c r="F318" t="s">
         <v>1565</v>
       </c>
-      <c r="G318" s="16" t="s">
+      <c r="G318" t="s">
         <v>1745</v>
       </c>
       <c r="H318">
@@ -41173,10 +41198,10 @@
       <c r="E319">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F319" s="9" t="s">
+      <c r="F319" t="s">
         <v>1584</v>
       </c>
-      <c r="G319" s="16" t="s">
+      <c r="G319" t="s">
         <v>30</v>
       </c>
       <c r="H319">
@@ -41205,10 +41230,10 @@
       <c r="E320">
         <v>0.90339999999999998</v>
       </c>
-      <c r="F320" s="9" t="s">
+      <c r="F320" t="s">
         <v>1586</v>
       </c>
-      <c r="G320" s="16" t="s">
+      <c r="G320" t="s">
         <v>30</v>
       </c>
       <c r="H320">
@@ -41237,10 +41262,10 @@
       <c r="E321">
         <v>0.96042000000000005</v>
       </c>
-      <c r="F321" s="9" t="s">
+      <c r="F321" t="s">
         <v>1549</v>
       </c>
-      <c r="G321" s="16" t="s">
+      <c r="G321" t="s">
         <v>1749</v>
       </c>
       <c r="H321">
@@ -41269,10 +41294,10 @@
       <c r="E322">
         <v>0.96042000000000005</v>
       </c>
-      <c r="F322" s="9" t="s">
+      <c r="F322" t="s">
         <v>1549</v>
       </c>
-      <c r="G322" s="16" t="s">
+      <c r="G322" t="s">
         <v>1750</v>
       </c>
       <c r="H322">
@@ -41301,10 +41326,10 @@
       <c r="E323">
         <v>0.96042000000000005</v>
       </c>
-      <c r="F323" s="9" t="s">
+      <c r="F323" t="s">
         <v>1549</v>
       </c>
-      <c r="G323" s="16" t="s">
+      <c r="G323" t="s">
         <v>1751</v>
       </c>
       <c r="H323">
@@ -41333,10 +41358,10 @@
       <c r="E324">
         <v>0.96042000000000005</v>
       </c>
-      <c r="F324" s="9" t="s">
+      <c r="F324" t="s">
         <v>1549</v>
       </c>
-      <c r="G324" s="16" t="s">
+      <c r="G324" t="s">
         <v>1752</v>
       </c>
       <c r="H324">
@@ -41365,10 +41390,10 @@
       <c r="E325">
         <v>0.56242000000000003</v>
       </c>
-      <c r="F325" s="9" t="s">
+      <c r="F325" t="s">
         <v>1549</v>
       </c>
-      <c r="G325" s="16" t="s">
+      <c r="G325" t="s">
         <v>1753</v>
       </c>
       <c r="H325">
@@ -41397,10 +41422,10 @@
       <c r="E326">
         <v>0.56242000000000003</v>
       </c>
-      <c r="F326" s="9" t="s">
+      <c r="F326" t="s">
         <v>1549</v>
       </c>
-      <c r="G326" s="16" t="s">
+      <c r="G326" t="s">
         <v>819</v>
       </c>
       <c r="H326">
@@ -41429,10 +41454,10 @@
       <c r="E327">
         <v>0.56242000000000003</v>
       </c>
-      <c r="F327" s="9" t="s">
+      <c r="F327" t="s">
         <v>1549</v>
       </c>
-      <c r="G327" s="16" t="s">
+      <c r="G327" t="s">
         <v>1754</v>
       </c>
       <c r="H327">
@@ -41461,10 +41486,10 @@
       <c r="E328">
         <v>0.56242000000000003</v>
       </c>
-      <c r="F328" s="9" t="s">
+      <c r="F328" t="s">
         <v>1549</v>
       </c>
-      <c r="G328" s="16" t="s">
+      <c r="G328" t="s">
         <v>1755</v>
       </c>
       <c r="H328">
@@ -41493,10 +41518,10 @@
       <c r="E329">
         <v>0.56242000000000003</v>
       </c>
-      <c r="F329" s="9" t="s">
+      <c r="F329" t="s">
         <v>1568</v>
       </c>
-      <c r="G329" s="16" t="s">
+      <c r="G329" t="s">
         <v>1756</v>
       </c>
       <c r="H329">
@@ -41525,10 +41550,10 @@
       <c r="E330">
         <v>0.56242000000000003</v>
       </c>
-      <c r="F330" s="9" t="s">
+      <c r="F330" t="s">
         <v>1570</v>
       </c>
-      <c r="G330" s="16" t="s">
+      <c r="G330" t="s">
         <v>1756</v>
       </c>
       <c r="H330">
@@ -41557,10 +41582,10 @@
       <c r="E331">
         <v>0.56242000000000003</v>
       </c>
-      <c r="F331" s="9" t="s">
+      <c r="F331" t="s">
         <v>1571</v>
       </c>
-      <c r="G331" s="16" t="s">
+      <c r="G331" t="s">
         <v>1756</v>
       </c>
       <c r="H331">
@@ -41589,10 +41614,10 @@
       <c r="E332">
         <v>0.56242000000000003</v>
       </c>
-      <c r="F332" s="9" t="s">
+      <c r="F332" t="s">
         <v>1571</v>
       </c>
-      <c r="G332" s="16" t="s">
+      <c r="G332" t="s">
         <v>1757</v>
       </c>
       <c r="H332">
@@ -41621,10 +41646,10 @@
       <c r="E333">
         <v>0.56242000000000003</v>
       </c>
-      <c r="F333" s="9" t="s">
+      <c r="F333" t="s">
         <v>1573</v>
       </c>
-      <c r="G333" s="16" t="s">
+      <c r="G333" t="s">
         <v>1756</v>
       </c>
       <c r="H333">
@@ -41653,10 +41678,10 @@
       <c r="E334">
         <v>0.56242000000000003</v>
       </c>
-      <c r="F334" s="9" t="s">
+      <c r="F334" t="s">
         <v>1561</v>
       </c>
-      <c r="G334" s="16" t="s">
+      <c r="G334" t="s">
         <v>1758</v>
       </c>
       <c r="H334">
@@ -41685,10 +41710,10 @@
       <c r="E335">
         <v>0.56242000000000003</v>
       </c>
-      <c r="F335" s="9" t="s">
+      <c r="F335" t="s">
         <v>1554</v>
       </c>
-      <c r="G335" s="16" t="s">
+      <c r="G335" t="s">
         <v>1758</v>
       </c>
       <c r="H335">
@@ -41717,10 +41742,10 @@
       <c r="E336">
         <v>0.56242000000000003</v>
       </c>
-      <c r="F336" s="9" t="s">
+      <c r="F336" t="s">
         <v>1578</v>
       </c>
-      <c r="G336" s="16" t="s">
+      <c r="G336" t="s">
         <v>1757</v>
       </c>
       <c r="H336">
@@ -41749,10 +41774,10 @@
       <c r="E337">
         <v>0.56242000000000003</v>
       </c>
-      <c r="F337" s="9" t="s">
+      <c r="F337" t="s">
         <v>1580</v>
       </c>
-      <c r="G337" s="16" t="s">
+      <c r="G337" t="s">
         <v>1756</v>
       </c>
       <c r="H337">
@@ -41781,10 +41806,10 @@
       <c r="E338">
         <v>0.56242000000000003</v>
       </c>
-      <c r="F338" s="9" t="s">
+      <c r="F338" t="s">
         <v>1580</v>
       </c>
-      <c r="G338" s="16" t="s">
+      <c r="G338" t="s">
         <v>1757</v>
       </c>
       <c r="H338">
@@ -41813,10 +41838,10 @@
       <c r="E339">
         <v>0.56242000000000003</v>
       </c>
-      <c r="F339" s="9" t="s">
+      <c r="F339" t="s">
         <v>1581</v>
       </c>
-      <c r="G339" s="16" t="s">
+      <c r="G339" t="s">
         <v>1759</v>
       </c>
       <c r="H339">
@@ -41845,10 +41870,10 @@
       <c r="E340">
         <v>0.56242000000000003</v>
       </c>
-      <c r="F340" s="9" t="s">
+      <c r="F340" t="s">
         <v>1582</v>
       </c>
-      <c r="G340" s="16" t="s">
+      <c r="G340" t="s">
         <v>1756</v>
       </c>
       <c r="H340">
@@ -41877,10 +41902,10 @@
       <c r="E341">
         <v>0.56242000000000003</v>
       </c>
-      <c r="F341" s="9" t="s">
+      <c r="F341" t="s">
         <v>1650</v>
       </c>
-      <c r="G341" s="16" t="s">
+      <c r="G341" t="s">
         <v>1760</v>
       </c>
       <c r="H341">
@@ -41909,10 +41934,10 @@
       <c r="E342">
         <v>0.56242000000000003</v>
       </c>
-      <c r="F342" s="9" t="s">
+      <c r="F342" t="s">
         <v>1650</v>
       </c>
-      <c r="G342" s="16" t="s">
+      <c r="G342" t="s">
         <v>1756</v>
       </c>
       <c r="H342">
@@ -41941,10 +41966,10 @@
       <c r="E343">
         <v>0.56242000000000003</v>
       </c>
-      <c r="F343" s="9" t="s">
+      <c r="F343" t="s">
         <v>1584</v>
       </c>
-      <c r="G343" s="16" t="s">
+      <c r="G343" t="s">
         <v>1754</v>
       </c>
       <c r="H343">
@@ -41973,10 +41998,10 @@
       <c r="E344">
         <v>0.98409999999999997</v>
       </c>
-      <c r="F344" s="9" t="s">
+      <c r="F344" t="s">
         <v>1549</v>
       </c>
-      <c r="G344" s="16" t="s">
+      <c r="G344" t="s">
         <v>1761</v>
       </c>
       <c r="H344">
@@ -42005,10 +42030,10 @@
       <c r="E345">
         <v>0.98409999999999997</v>
       </c>
-      <c r="F345" s="9" t="s">
+      <c r="F345" t="s">
         <v>1549</v>
       </c>
-      <c r="G345" s="16" t="s">
+      <c r="G345" t="s">
         <v>1762</v>
       </c>
       <c r="H345">
@@ -42037,10 +42062,10 @@
       <c r="E346">
         <v>0.98409999999999997</v>
       </c>
-      <c r="F346" s="9" t="s">
+      <c r="F346" t="s">
         <v>1549</v>
       </c>
-      <c r="G346" s="16" t="s">
+      <c r="G346" t="s">
         <v>1763</v>
       </c>
       <c r="H346">
@@ -42069,10 +42094,10 @@
       <c r="E347">
         <v>0.98409999999999997</v>
       </c>
-      <c r="F347" s="9" t="s">
+      <c r="F347" t="s">
         <v>1549</v>
       </c>
-      <c r="G347" s="16" t="s">
+      <c r="G347" t="s">
         <v>1764</v>
       </c>
       <c r="H347">
@@ -42101,10 +42126,10 @@
       <c r="E348">
         <v>0.98409999999999997</v>
       </c>
-      <c r="F348" s="9" t="s">
+      <c r="F348" t="s">
         <v>1549</v>
       </c>
-      <c r="G348" s="16" t="s">
+      <c r="G348" t="s">
         <v>1765</v>
       </c>
       <c r="H348">
@@ -42133,10 +42158,10 @@
       <c r="E349">
         <v>0.98409999999999997</v>
       </c>
-      <c r="F349" s="9" t="s">
+      <c r="F349" t="s">
         <v>1549</v>
       </c>
-      <c r="G349" s="16" t="s">
+      <c r="G349" t="s">
         <v>1766</v>
       </c>
       <c r="H349">
@@ -42165,10 +42190,10 @@
       <c r="E350">
         <v>0.98409999999999997</v>
       </c>
-      <c r="F350" s="9" t="s">
+      <c r="F350" t="s">
         <v>1549</v>
       </c>
-      <c r="G350" s="16" t="s">
+      <c r="G350" t="s">
         <v>1767</v>
       </c>
       <c r="H350">
@@ -42197,10 +42222,10 @@
       <c r="E351">
         <v>0.98409999999999997</v>
       </c>
-      <c r="F351" s="9" t="s">
+      <c r="F351" t="s">
         <v>1549</v>
       </c>
-      <c r="G351" s="16" t="s">
+      <c r="G351" t="s">
         <v>1768</v>
       </c>
       <c r="H351">
@@ -42229,10 +42254,10 @@
       <c r="E352">
         <v>1</v>
       </c>
-      <c r="F352" s="9" t="s">
+      <c r="F352" t="s">
         <v>1549</v>
       </c>
-      <c r="G352" s="16" t="s">
+      <c r="G352" t="s">
         <v>1769</v>
       </c>
       <c r="H352">
@@ -42261,10 +42286,10 @@
       <c r="E353">
         <v>1</v>
       </c>
-      <c r="F353" s="9" t="s">
+      <c r="F353" t="s">
         <v>1579</v>
       </c>
-      <c r="G353" s="16" t="s">
+      <c r="G353" t="s">
         <v>1770</v>
       </c>
       <c r="H353">
@@ -42293,10 +42318,10 @@
       <c r="E354">
         <v>0.52883000000000002</v>
       </c>
-      <c r="F354" s="9" t="s">
+      <c r="F354" t="s">
         <v>1549</v>
       </c>
-      <c r="G354" s="16" t="s">
+      <c r="G354" t="s">
         <v>848</v>
       </c>
       <c r="H354">
@@ -42325,10 +42350,10 @@
       <c r="E355">
         <v>0.52883000000000002</v>
       </c>
-      <c r="F355" s="9" t="s">
+      <c r="F355" t="s">
         <v>1549</v>
       </c>
-      <c r="G355" s="16" t="s">
+      <c r="G355" t="s">
         <v>1771</v>
       </c>
       <c r="H355">
@@ -42357,10 +42382,10 @@
       <c r="E356">
         <v>0.52883000000000002</v>
       </c>
-      <c r="F356" s="9" t="s">
+      <c r="F356" t="s">
         <v>1549</v>
       </c>
-      <c r="G356" s="16" t="s">
+      <c r="G356" t="s">
         <v>1772</v>
       </c>
       <c r="H356">
@@ -42389,10 +42414,10 @@
       <c r="E357">
         <v>0.52883000000000002</v>
       </c>
-      <c r="F357" s="9" t="s">
+      <c r="F357" t="s">
         <v>1549</v>
       </c>
-      <c r="G357" s="16" t="s">
+      <c r="G357" t="s">
         <v>1773</v>
       </c>
       <c r="H357">
@@ -42421,10 +42446,10 @@
       <c r="E358">
         <v>0.52883000000000002</v>
       </c>
-      <c r="F358" s="9" t="s">
+      <c r="F358" t="s">
         <v>1549</v>
       </c>
-      <c r="G358" s="16" t="s">
+      <c r="G358" t="s">
         <v>1774</v>
       </c>
       <c r="H358">
@@ -42453,10 +42478,10 @@
       <c r="E359">
         <v>0.52883000000000002</v>
       </c>
-      <c r="F359" s="9" t="s">
+      <c r="F359" t="s">
         <v>1549</v>
       </c>
-      <c r="G359" s="16" t="s">
+      <c r="G359" t="s">
         <v>1775</v>
       </c>
       <c r="H359">
@@ -42485,10 +42510,10 @@
       <c r="E360">
         <v>0.52883000000000002</v>
       </c>
-      <c r="F360" s="9" t="s">
+      <c r="F360" t="s">
         <v>1549</v>
       </c>
-      <c r="G360" s="16" t="s">
+      <c r="G360" t="s">
         <v>1776</v>
       </c>
       <c r="H360">
@@ -42517,10 +42542,10 @@
       <c r="E361">
         <v>0.52883000000000002</v>
       </c>
-      <c r="F361" s="9" t="s">
+      <c r="F361" t="s">
         <v>1549</v>
       </c>
-      <c r="G361" s="16" t="s">
+      <c r="G361" t="s">
         <v>1777</v>
       </c>
       <c r="H361">
@@ -42549,10 +42574,10 @@
       <c r="E362">
         <v>0.52883000000000002</v>
       </c>
-      <c r="F362" s="9" t="s">
+      <c r="F362" t="s">
         <v>1549</v>
       </c>
-      <c r="G362" s="16" t="s">
+      <c r="G362" t="s">
         <v>1778</v>
       </c>
       <c r="H362">
@@ -42581,10 +42606,10 @@
       <c r="E363">
         <v>0.52883000000000002</v>
       </c>
-      <c r="F363" s="9" t="s">
+      <c r="F363" t="s">
         <v>1549</v>
       </c>
-      <c r="G363" s="16" t="s">
+      <c r="G363" t="s">
         <v>1779</v>
       </c>
       <c r="H363">
@@ -42613,10 +42638,10 @@
       <c r="E364">
         <v>0.52883000000000002</v>
       </c>
-      <c r="F364" s="9" t="s">
+      <c r="F364" t="s">
         <v>1549</v>
       </c>
-      <c r="G364" s="16" t="s">
+      <c r="G364" t="s">
         <v>1780</v>
       </c>
       <c r="H364">
@@ -42645,10 +42670,10 @@
       <c r="E365">
         <v>0.52883000000000002</v>
       </c>
-      <c r="F365" s="9" t="s">
+      <c r="F365" t="s">
         <v>1555</v>
       </c>
-      <c r="G365" s="16" t="s">
+      <c r="G365" t="s">
         <v>1781</v>
       </c>
       <c r="H365">
@@ -42677,10 +42702,10 @@
       <c r="E366">
         <v>0.52883000000000002</v>
       </c>
-      <c r="F366" s="9" t="s">
+      <c r="F366" t="s">
         <v>1577</v>
       </c>
-      <c r="G366" s="16" t="s">
+      <c r="G366" t="s">
         <v>1782</v>
       </c>
       <c r="H366">
@@ -42709,10 +42734,10 @@
       <c r="E367">
         <v>0.52883000000000002</v>
       </c>
-      <c r="F367" s="9" t="s">
+      <c r="F367" t="s">
         <v>1564</v>
       </c>
-      <c r="G367" s="16" t="s">
+      <c r="G367" t="s">
         <v>1781</v>
       </c>
       <c r="H367">
@@ -42741,10 +42766,10 @@
       <c r="E368">
         <v>0.52883000000000002</v>
       </c>
-      <c r="F368" s="9" t="s">
+      <c r="F368" t="s">
         <v>1564</v>
       </c>
-      <c r="G368" s="16" t="s">
+      <c r="G368" t="s">
         <v>1783</v>
       </c>
       <c r="H368">
@@ -42773,10 +42798,10 @@
       <c r="E369">
         <v>0.52883000000000002</v>
       </c>
-      <c r="F369" s="9" t="s">
+      <c r="F369" t="s">
         <v>1584</v>
       </c>
-      <c r="G369" s="16" t="s">
+      <c r="G369" t="s">
         <v>1784</v>
       </c>
       <c r="H369">
@@ -42805,10 +42830,10 @@
       <c r="E370">
         <v>0.89583000000000002</v>
       </c>
-      <c r="F370" s="9" t="s">
+      <c r="F370" t="s">
         <v>1549</v>
       </c>
-      <c r="G370" s="16" t="s">
+      <c r="G370" t="s">
         <v>1785</v>
       </c>
       <c r="H370">
@@ -42837,10 +42862,10 @@
       <c r="E371">
         <v>0.89583000000000002</v>
       </c>
-      <c r="F371" s="9" t="s">
+      <c r="F371" t="s">
         <v>1549</v>
       </c>
-      <c r="G371" s="16" t="s">
+      <c r="G371" t="s">
         <v>860</v>
       </c>
       <c r="H371">
@@ -42869,10 +42894,10 @@
       <c r="E372">
         <v>0.89583000000000002</v>
       </c>
-      <c r="F372" s="9" t="s">
+      <c r="F372" t="s">
         <v>1549</v>
       </c>
-      <c r="G372" s="16" t="s">
+      <c r="G372" t="s">
         <v>1786</v>
       </c>
       <c r="H372">
@@ -42901,10 +42926,10 @@
       <c r="E373">
         <v>0.89583000000000002</v>
       </c>
-      <c r="F373" s="9" t="s">
+      <c r="F373" t="s">
         <v>1549</v>
       </c>
-      <c r="G373" s="16" t="s">
+      <c r="G373" t="s">
         <v>1787</v>
       </c>
       <c r="H373">
@@ -42933,10 +42958,10 @@
       <c r="E374">
         <v>0.89583000000000002</v>
       </c>
-      <c r="F374" s="9" t="s">
+      <c r="F374" t="s">
         <v>1549</v>
       </c>
-      <c r="G374" s="16" t="s">
+      <c r="G374" t="s">
         <v>1788</v>
       </c>
       <c r="H374">
@@ -42965,10 +42990,10 @@
       <c r="E375">
         <v>0.89583000000000002</v>
       </c>
-      <c r="F375" s="9" t="s">
+      <c r="F375" t="s">
         <v>1549</v>
       </c>
-      <c r="G375" s="16" t="s">
+      <c r="G375" t="s">
         <v>1789</v>
       </c>
       <c r="H375">
@@ -42997,10 +43022,10 @@
       <c r="E376">
         <v>0.89583000000000002</v>
       </c>
-      <c r="F376" s="9" t="s">
+      <c r="F376" t="s">
         <v>1549</v>
       </c>
-      <c r="G376" s="16" t="s">
+      <c r="G376" t="s">
         <v>1790</v>
       </c>
       <c r="H376">
@@ -43029,10 +43054,10 @@
       <c r="E377">
         <v>0.89583000000000002</v>
       </c>
-      <c r="F377" s="9" t="s">
+      <c r="F377" t="s">
         <v>1549</v>
       </c>
-      <c r="G377" s="16" t="s">
+      <c r="G377" t="s">
         <v>1791</v>
       </c>
       <c r="H377">
@@ -43061,10 +43086,10 @@
       <c r="E378">
         <v>0.89583000000000002</v>
       </c>
-      <c r="F378" s="9" t="s">
+      <c r="F378" t="s">
         <v>1549</v>
       </c>
-      <c r="G378" s="16" t="s">
+      <c r="G378" t="s">
         <v>1792</v>
       </c>
       <c r="H378">
@@ -43093,10 +43118,10 @@
       <c r="E379">
         <v>0.89583000000000002</v>
       </c>
-      <c r="F379" s="9" t="s">
+      <c r="F379" t="s">
         <v>1549</v>
       </c>
-      <c r="G379" s="16" t="s">
+      <c r="G379" t="s">
         <v>1793</v>
       </c>
       <c r="H379">
@@ -43125,10 +43150,10 @@
       <c r="E380">
         <v>0.89583000000000002</v>
       </c>
-      <c r="F380" s="9" t="s">
+      <c r="F380" t="s">
         <v>1549</v>
       </c>
-      <c r="G380" s="16" t="s">
+      <c r="G380" t="s">
         <v>1794</v>
       </c>
       <c r="H380">
@@ -43157,10 +43182,10 @@
       <c r="E381">
         <v>0.89583000000000002</v>
       </c>
-      <c r="F381" s="9" t="s">
+      <c r="F381" t="s">
         <v>1549</v>
       </c>
-      <c r="G381" s="16" t="s">
+      <c r="G381" t="s">
         <v>1795</v>
       </c>
       <c r="H381">
@@ -43189,10 +43214,10 @@
       <c r="E382">
         <v>0.89583000000000002</v>
       </c>
-      <c r="F382" s="9" t="s">
+      <c r="F382" t="s">
         <v>1549</v>
       </c>
-      <c r="G382" s="16" t="s">
+      <c r="G382" t="s">
         <v>1796</v>
       </c>
       <c r="H382">
@@ -43256,82 +43281,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>1835</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="27" t="s">
         <v>888</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="27" t="s">
         <v>889</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="27" t="s">
         <v>890</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="27" t="s">
         <v>891</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="27" t="s">
         <v>892</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="27" t="s">
         <v>1807</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="27" t="s">
         <v>893</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="27" t="s">
         <v>1809</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
       <c r="L3" s="13" t="s">
         <v>1836</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="27" t="s">
         <v>381</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="27" t="s">
         <v>1838</v>
       </c>
-      <c r="O3" s="25"/>
+      <c r="O3" s="27"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="13" t="s">
         <v>1549</v>
       </c>
@@ -43347,7 +43372,7 @@
       <c r="L4" s="13" t="s">
         <v>1837</v>
       </c>
-      <c r="M4" s="25"/>
+      <c r="M4" s="27"/>
       <c r="N4" s="13" t="s">
         <v>1839</v>
       </c>
